--- a/Data/auxiliary_data.xlsx
+++ b/Data/auxiliary_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9adb48ff0228f9c1/Thesis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="699" documentId="11_F25DC773A252ABDACC10483D791960605BDE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{600F7532-C6A6-42E3-B5E5-5B1961BCDEF1}"/>
+  <xr:revisionPtr revIDLastSave="801" documentId="11_F25DC773A252ABDACC10483D791960605BDE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F5FDD79-98F1-44C2-B13C-1CC6366D429D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -620,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -1031,7 +1031,7 @@
         <v>2019</v>
       </c>
       <c r="H10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="2">
         <v>74.099999999999994</v>
@@ -1769,7 +1769,7 @@
         <v>2020</v>
       </c>
       <c r="H28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" s="2">
         <v>22.9</v>
@@ -1810,7 +1810,7 @@
         <v>2017</v>
       </c>
       <c r="H29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" s="2">
         <v>25</v>
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="2">
         <v>24.1</v>
@@ -2097,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" s="2">
         <v>25.1</v>
@@ -2220,7 +2220,7 @@
         <v>2019</v>
       </c>
       <c r="H39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" s="2">
         <v>28</v>
@@ -2261,7 +2261,7 @@
         <v>2017</v>
       </c>
       <c r="H40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" s="2">
         <v>32.700000000000003</v>
@@ -2343,7 +2343,7 @@
         <v>2018</v>
       </c>
       <c r="H42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" s="2">
         <v>22.8</v>
@@ -2384,7 +2384,7 @@
         <v>2020</v>
       </c>
       <c r="H43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" s="2">
         <v>23.4</v>
@@ -2466,7 +2466,7 @@
         <v>2018</v>
       </c>
       <c r="H45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" s="2">
         <v>21.6</v>

--- a/Data/auxiliary_data.xlsx
+++ b/Data/auxiliary_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9adb48ff0228f9c1/Thesis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="801" documentId="11_F25DC773A252ABDACC10483D791960605BDE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F5FDD79-98F1-44C2-B13C-1CC6366D429D}"/>
+  <xr:revisionPtr revIDLastSave="803" documentId="11_F25DC773A252ABDACC10483D791960605BDE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FC42C65-3957-4ACC-97B5-EBC25C606641}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -620,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -1221,10 +1221,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="5">
-        <v>0</v>
+        <v>2012</v>
       </c>
       <c r="D15" s="2">
-        <v>0</v>
+        <v>201201</v>
       </c>
       <c r="E15" s="5">
         <v>0</v>

--- a/Data/auxiliary_data.xlsx
+++ b/Data/auxiliary_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9adb48ff0228f9c1/Thesis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="803" documentId="11_F25DC773A252ABDACC10483D791960605BDE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FC42C65-3957-4ACC-97B5-EBC25C606641}"/>
+  <xr:revisionPtr revIDLastSave="805" documentId="11_F25DC773A252ABDACC10483D791960605BDE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65329856-5EB6-4F2F-81AF-5296EFF334AE}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1221,10 +1221,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="5">
-        <v>2012</v>
+        <v>0</v>
       </c>
       <c r="D15" s="2">
-        <v>201201</v>
+        <v>0</v>
       </c>
       <c r="E15" s="5">
         <v>0</v>

--- a/Data/auxiliary_data.xlsx
+++ b/Data/auxiliary_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9adb48ff0228f9c1/Thesis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="805" documentId="11_F25DC773A252ABDACC10483D791960605BDE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65329856-5EB6-4F2F-81AF-5296EFF334AE}"/>
+  <xr:revisionPtr revIDLastSave="813" documentId="11_F25DC773A252ABDACC10483D791960605BDE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0177690-0B5C-4A93-8549-7E8E333A705F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -621,7 +621,7 @@
   <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="C26" s="5">
-        <v>0</v>
+        <v>2019</v>
       </c>
       <c r="D26" s="2">
-        <v>0</v>
+        <v>201810</v>
       </c>
       <c r="E26" s="5">
         <v>2020</v>
@@ -2325,13 +2325,13 @@
         <v>39</v>
       </c>
       <c r="B42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" s="5">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D42" s="2">
-        <v>201807</v>
+        <v>201805</v>
       </c>
       <c r="E42" s="5">
         <v>2018</v>
@@ -2697,10 +2697,10 @@
         <v>1</v>
       </c>
       <c r="C51" s="5">
-        <v>2017</v>
+        <v>0</v>
       </c>
       <c r="D51" s="2">
-        <v>201704</v>
+        <v>0</v>
       </c>
       <c r="E51" s="5">
         <v>0</v>

--- a/Data/auxiliary_data.xlsx
+++ b/Data/auxiliary_data.xlsx
@@ -8,17 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9adb48ff0228f9c1/Thesis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="813" documentId="11_F25DC773A252ABDACC10483D791960605BDE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0177690-0B5C-4A93-8549-7E8E333A705F}"/>
+  <xr:revisionPtr revIDLastSave="952" documentId="11_F25DC773A252ABDACC10483D791960605BDE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8A9A744-B228-45B4-86AD-44C169BFA898}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -28,9 +39,10 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={E0C20475-EFBA-4C8C-8CF4-B490E9206866}</author>
+    <author>tc={EBDD14CE-791A-4E31-A502-CD1EBC84196C}</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{E0C20475-EFBA-4C8C-8CF4-B490E9206866}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{E0C20475-EFBA-4C8C-8CF4-B490E9206866}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -39,12 +51,20 @@
 </t>
       </text>
     </comment>
+    <comment ref="P1" authorId="1" shapeId="0" xr:uid="{EBDD14CE-791A-4E31-A502-CD1EBC84196C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Deaths per 100,000</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="73">
   <si>
     <t>Alabama</t>
   </si>
@@ -236,13 +256,40 @@
   </si>
   <si>
     <t>AnyPolicyDate</t>
+  </si>
+  <si>
+    <t>LawDateforMap</t>
+  </si>
+  <si>
+    <t>AnyPolicyDateforMap</t>
+  </si>
+  <si>
+    <t>AvgTemp</t>
+  </si>
+  <si>
+    <t>Republicans</t>
+  </si>
+  <si>
+    <t>Swing State</t>
+  </si>
+  <si>
+    <t>Democrat</t>
+  </si>
+  <si>
+    <t>Republican</t>
+  </si>
+  <si>
+    <t>AgeAdjDeathRate</t>
+  </si>
+  <si>
+    <t>PoliticalLeaning</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,6 +310,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -306,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -322,6 +381,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -609,37 +686,45 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="I1" dT="2024-06-02T08:30:02.64" personId="{1401F3AB-4216-4CEE-809D-17293302B177}" id="{E0C20475-EFBA-4C8C-8CF4-B490E9206866}">
+  <threadedComment ref="K1" dT="2024-06-02T08:30:02.64" personId="{1401F3AB-4216-4CEE-809D-17293302B177}" id="{E0C20475-EFBA-4C8C-8CF4-B490E9206866}">
     <text xml:space="preserve">Per 10,000 resident population
 </text>
+  </threadedComment>
+  <threadedComment ref="P1" dT="2024-06-26T06:07:39.14" personId="{1401F3AB-4216-4CEE-809D-17293302B177}" id="{EBDD14CE-791A-4E31-A502-CD1EBC84196C}">
+    <text>Deaths per 100,000</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="17.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="8.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.7265625" style="2"/>
+    <col min="3" max="3" width="13" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="17.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="8.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
@@ -647,40 +732,55 @@
         <v>50</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -690,38 +790,53 @@
       <c r="C2" s="5">
         <v>0</v>
       </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5">
-        <v>2019</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>2019</v>
+      </c>
+      <c r="G2" s="2">
         <v>201811</v>
       </c>
-      <c r="G2" s="2">
-        <v>2019</v>
-      </c>
       <c r="H2" s="2">
-        <v>0</v>
+        <v>2018</v>
       </c>
       <c r="I2" s="2">
+        <v>2019</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
         <v>21.5</v>
       </c>
-      <c r="J2" s="2">
+      <c r="L2" s="2">
         <v>23.7</v>
       </c>
-      <c r="K2" s="4">
+      <c r="M2" s="4">
         <v>4779736</v>
       </c>
-      <c r="L2" s="4">
+      <c r="N2" s="4">
         <v>5024356</v>
       </c>
-      <c r="M2" s="4">
+      <c r="O2" s="4">
         <v>5074296</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P2" s="8">
+        <v>941.7</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>64.811111111111089</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -729,40 +844,55 @@
         <v>0</v>
       </c>
       <c r="C3" s="5">
-        <v>2018</v>
-      </c>
-      <c r="D3" s="2">
+        <v>2017</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2018</v>
+      </c>
+      <c r="E3" s="2">
         <v>201707</v>
       </c>
-      <c r="E3" s="5">
-        <v>2019</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="F3" s="5">
+        <v>2019</v>
+      </c>
+      <c r="G3" s="2">
         <v>201811</v>
       </c>
-      <c r="G3" s="2">
-        <v>2018</v>
-      </c>
       <c r="H3" s="2">
-        <v>0</v>
+        <v>2017</v>
       </c>
       <c r="I3" s="2">
+        <v>2018</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
         <v>24.5</v>
       </c>
-      <c r="J3" s="2">
+      <c r="L3" s="2">
         <v>28.3</v>
       </c>
-      <c r="K3" s="4">
+      <c r="M3" s="4">
         <v>710231</v>
       </c>
-      <c r="L3" s="4">
+      <c r="N3" s="4">
         <v>733378</v>
       </c>
-      <c r="M3" s="4">
+      <c r="O3" s="4">
         <v>733583</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P3" s="8">
+        <v>730.6</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>29.422222222222224</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -772,38 +902,53 @@
       <c r="C4" s="5">
         <v>2018</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="5">
+        <v>2018</v>
+      </c>
+      <c r="E4" s="2">
         <v>201804</v>
       </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="F4" s="5">
         <v>0</v>
       </c>
       <c r="G4" s="2">
-        <v>2018</v>
+        <v>0</v>
       </c>
       <c r="H4" s="2">
+        <v>2018</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2018</v>
+      </c>
+      <c r="J4" s="2">
         <v>1</v>
       </c>
-      <c r="I4" s="2">
+      <c r="K4" s="2">
         <v>22.6</v>
       </c>
-      <c r="J4" s="2">
+      <c r="L4" s="2">
         <v>26.5</v>
       </c>
-      <c r="K4" s="4">
+      <c r="M4" s="4">
         <v>6392017</v>
       </c>
-      <c r="L4" s="4">
+      <c r="N4" s="4">
         <v>7151507</v>
       </c>
-      <c r="M4" s="4">
+      <c r="O4" s="4">
         <v>7359197</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P4" s="8">
+        <v>697.8</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>61.811111111111117</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -811,40 +956,55 @@
         <v>0</v>
       </c>
       <c r="C5" s="5">
-        <v>2019</v>
-      </c>
-      <c r="D5" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D5" s="5">
+        <v>2019</v>
+      </c>
+      <c r="E5" s="2">
         <v>201808</v>
       </c>
-      <c r="E5" s="5">
-        <v>2018</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="F5" s="5">
+        <v>2018</v>
+      </c>
+      <c r="G5" s="2">
         <v>201803</v>
       </c>
-      <c r="G5" s="2">
-        <v>2018</v>
-      </c>
       <c r="H5" s="2">
+        <v>2018</v>
+      </c>
+      <c r="I5" s="2">
+        <v>2018</v>
+      </c>
+      <c r="J5" s="2">
         <v>1</v>
       </c>
-      <c r="I5" s="2">
+      <c r="K5" s="2">
         <v>20.399999999999999</v>
       </c>
-      <c r="J5" s="2">
+      <c r="L5" s="2">
         <v>22.6</v>
       </c>
-      <c r="K5" s="4">
+      <c r="M5" s="4">
         <v>2915918</v>
       </c>
-      <c r="L5" s="4">
+      <c r="N5" s="4">
         <v>3011555</v>
       </c>
-      <c r="M5" s="4">
+      <c r="O5" s="4">
         <v>3045637</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P5" s="8">
+        <v>908.7</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>61.755555555555553</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -854,13 +1014,13 @@
       <c r="C6" s="5">
         <v>0</v>
       </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
         <v>0</v>
       </c>
       <c r="G6" s="2">
@@ -870,22 +1030,37 @@
         <v>0</v>
       </c>
       <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
         <v>26.2</v>
       </c>
-      <c r="J6" s="2">
+      <c r="L6" s="2">
         <v>29.4</v>
       </c>
-      <c r="K6" s="4">
+      <c r="M6" s="4">
         <v>37253956</v>
       </c>
-      <c r="L6" s="4">
+      <c r="N6" s="4">
         <v>39538245</v>
       </c>
-      <c r="M6" s="4">
+      <c r="O6" s="4">
         <v>39029342</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P6" s="8">
+        <v>632.9</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>59.877777777777773</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -895,38 +1070,53 @@
       <c r="C7" s="5">
         <v>2018</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="5">
+        <v>2018</v>
+      </c>
+      <c r="E7" s="2">
         <v>201805</v>
       </c>
-      <c r="E7" s="5">
+      <c r="F7" s="5">
         <v>2015</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>201408</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
+        <v>2014</v>
+      </c>
+      <c r="I7" s="2">
         <v>2015</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>1</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>26.9</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>30.9</v>
       </c>
-      <c r="K7" s="4">
+      <c r="M7" s="4">
         <v>5029196</v>
       </c>
-      <c r="L7" s="4">
+      <c r="N7" s="4">
         <v>5773733</v>
       </c>
-      <c r="M7" s="4">
+      <c r="O7" s="4">
         <v>5839926</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P7" s="8">
+        <v>680.4</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>46.888888888888886</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -934,40 +1124,55 @@
         <v>0</v>
       </c>
       <c r="C8" s="5">
-        <v>2017</v>
-      </c>
-      <c r="D8" s="2">
+        <v>2016</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2017</v>
+      </c>
+      <c r="E8" s="2">
         <v>201607</v>
       </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="F8" s="5">
         <v>0</v>
       </c>
       <c r="G8" s="2">
-        <v>2017</v>
+        <v>0</v>
       </c>
       <c r="H8" s="2">
+        <v>2016</v>
+      </c>
+      <c r="I8" s="2">
+        <v>2017</v>
+      </c>
+      <c r="J8" s="2">
         <v>1</v>
       </c>
-      <c r="I8" s="2">
+      <c r="K8" s="2">
         <v>36.6</v>
       </c>
-      <c r="J8" s="2">
+      <c r="L8" s="2">
         <v>38.9</v>
       </c>
-      <c r="K8" s="4">
+      <c r="M8" s="4">
         <v>3574097</v>
       </c>
-      <c r="L8" s="4">
+      <c r="N8" s="4">
         <v>3605942</v>
       </c>
-      <c r="M8" s="4">
+      <c r="O8" s="4">
         <v>3626205</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P8" s="8">
+        <v>672</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>51.055555555555557</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,38 +1182,53 @@
       <c r="C9" s="5">
         <v>2017</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="5">
+        <v>2017</v>
+      </c>
+      <c r="E9" s="2">
         <v>201704</v>
       </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="F9" s="5">
         <v>0</v>
       </c>
       <c r="G9" s="2">
-        <v>2017</v>
+        <v>0</v>
       </c>
       <c r="H9" s="2">
+        <v>2017</v>
+      </c>
+      <c r="I9" s="2">
+        <v>2017</v>
+      </c>
+      <c r="J9" s="2">
         <v>1</v>
       </c>
-      <c r="I9" s="2">
+      <c r="K9" s="2">
         <v>26.3</v>
       </c>
-      <c r="J9" s="2">
+      <c r="L9" s="2">
         <v>27.9</v>
       </c>
-      <c r="K9" s="4">
+      <c r="M9" s="4">
         <v>897934</v>
       </c>
-      <c r="L9" s="4">
+      <c r="N9" s="4">
         <v>989957</v>
       </c>
-      <c r="M9" s="4">
+      <c r="O9" s="4">
         <v>1018396</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P9" s="8">
+        <v>764.1</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>57.311111111111103</v>
+      </c>
+      <c r="R9" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>53</v>
       </c>
@@ -1018,38 +1238,53 @@
       <c r="C10" s="5">
         <v>0</v>
       </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5">
-        <v>2019</v>
-      </c>
-      <c r="F10" s="2">
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>2019</v>
+      </c>
+      <c r="G10" s="2">
         <v>201810</v>
       </c>
-      <c r="G10" s="2">
-        <v>2019</v>
-      </c>
       <c r="H10" s="2">
-        <v>0</v>
+        <v>2018</v>
       </c>
       <c r="I10" s="2">
+        <v>2019</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
         <v>74.099999999999994</v>
       </c>
-      <c r="J10" s="2">
+      <c r="L10" s="2">
         <v>72.8</v>
       </c>
-      <c r="K10" s="4">
+      <c r="M10" s="4">
         <v>601723</v>
       </c>
-      <c r="L10" s="4">
+      <c r="N10" s="4">
         <v>689546</v>
       </c>
-      <c r="M10" s="4">
+      <c r="O10" s="4">
         <v>671803</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P10" s="8">
+        <v>749.3</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>60.37</v>
+      </c>
+      <c r="R10" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1057,40 +1292,55 @@
         <v>0</v>
       </c>
       <c r="C11" s="5">
-        <v>2019</v>
-      </c>
-      <c r="D11" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D11" s="5">
+        <v>2019</v>
+      </c>
+      <c r="E11" s="2">
         <v>201807</v>
       </c>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
+      <c r="F11" s="5">
         <v>0</v>
       </c>
       <c r="G11" s="2">
-        <v>2019</v>
+        <v>0</v>
       </c>
       <c r="H11" s="2">
-        <v>0</v>
+        <v>2018</v>
       </c>
       <c r="I11" s="2">
+        <v>2019</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
         <v>26</v>
       </c>
-      <c r="J11" s="2">
+      <c r="L11" s="2">
         <v>28.6</v>
       </c>
-      <c r="K11" s="4">
+      <c r="M11" s="4">
         <v>18801310</v>
       </c>
-      <c r="L11" s="4">
+      <c r="N11" s="4">
         <v>21538226</v>
       </c>
-      <c r="M11" s="4">
+      <c r="O11" s="4">
         <v>22244823</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P11" s="8">
+        <v>675.3</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>72.811111111111103</v>
+      </c>
+      <c r="R11" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1100,38 +1350,53 @@
       <c r="C12" s="5">
         <v>0</v>
       </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
         <v>0</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
       </c>
       <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
         <v>1</v>
       </c>
-      <c r="I12" s="2">
+      <c r="K12" s="2">
         <v>21.3</v>
       </c>
-      <c r="J12" s="2">
+      <c r="L12" s="2">
         <v>24.4</v>
       </c>
-      <c r="K12" s="4">
+      <c r="M12" s="4">
         <v>9687653</v>
       </c>
-      <c r="L12" s="4">
+      <c r="N12" s="4">
         <v>10711937</v>
       </c>
-      <c r="M12" s="4">
+      <c r="O12" s="4">
         <v>10912876</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P12" s="8">
+        <v>814.7</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>65.422222222222217</v>
+      </c>
+      <c r="R12" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1139,40 +1404,55 @@
         <v>0</v>
       </c>
       <c r="C13" s="5">
-        <v>2017</v>
-      </c>
-      <c r="D13" s="2">
+        <v>2016</v>
+      </c>
+      <c r="D13" s="5">
+        <v>2017</v>
+      </c>
+      <c r="E13" s="2">
         <v>201607</v>
       </c>
-      <c r="E13" s="5">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
+      <c r="F13" s="5">
         <v>0</v>
       </c>
       <c r="G13" s="2">
-        <v>2017</v>
+        <v>0</v>
       </c>
       <c r="H13" s="2">
-        <v>0</v>
+        <v>2016</v>
       </c>
       <c r="I13" s="2">
+        <v>2017</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
         <v>31.7</v>
       </c>
-      <c r="J13" s="2">
+      <c r="L13" s="2">
         <v>32.6</v>
       </c>
-      <c r="K13" s="4">
+      <c r="M13" s="4">
         <v>1360301</v>
       </c>
-      <c r="L13" s="4">
+      <c r="N13" s="4">
         <v>1455273</v>
       </c>
-      <c r="M13" s="4">
+      <c r="O13" s="4">
         <v>1440196</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P13" s="8">
+        <v>573.9</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>81.08</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -1182,13 +1462,13 @@
       <c r="C14" s="5">
         <v>0</v>
       </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2">
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
         <v>0</v>
       </c>
       <c r="G14" s="2">
@@ -1198,22 +1478,37 @@
         <v>0</v>
       </c>
       <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
         <v>18.3</v>
       </c>
-      <c r="J14" s="2">
+      <c r="L14" s="2">
         <v>19.8</v>
       </c>
-      <c r="K14" s="4">
+      <c r="M14" s="4">
         <v>1567582</v>
       </c>
-      <c r="L14" s="4">
+      <c r="N14" s="4">
         <v>1839092</v>
       </c>
-      <c r="M14" s="4">
+      <c r="O14" s="4">
         <v>1939033</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P14" s="8">
+        <v>744.1</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>44.488888888888887</v>
+      </c>
+      <c r="R14" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -1223,13 +1518,13 @@
       <c r="C15" s="5">
         <v>0</v>
       </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
         <v>0</v>
       </c>
       <c r="G15" s="2">
@@ -1239,22 +1534,37 @@
         <v>0</v>
       </c>
       <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
         <v>27.8</v>
       </c>
-      <c r="J15" s="2">
+      <c r="L15" s="2">
         <v>30.7</v>
       </c>
-      <c r="K15" s="4">
+      <c r="M15" s="4">
         <v>12830632</v>
       </c>
-      <c r="L15" s="4">
+      <c r="N15" s="4">
         <v>12812545</v>
       </c>
-      <c r="M15" s="4">
+      <c r="O15" s="4">
         <v>12582032</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P15" s="8">
+        <v>743.8</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>53.388888888888893</v>
+      </c>
+      <c r="R15" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -1262,40 +1572,55 @@
         <v>0</v>
       </c>
       <c r="C16" s="5">
-        <v>2018</v>
-      </c>
-      <c r="D16" s="2">
+        <v>2017</v>
+      </c>
+      <c r="D16" s="5">
+        <v>2018</v>
+      </c>
+      <c r="E16" s="2">
         <v>201707</v>
       </c>
-      <c r="E16" s="5">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2">
+      <c r="F16" s="5">
         <v>0</v>
       </c>
       <c r="G16" s="2">
-        <v>2018</v>
+        <v>0</v>
       </c>
       <c r="H16" s="2">
+        <v>2017</v>
+      </c>
+      <c r="I16" s="2">
+        <v>2018</v>
+      </c>
+      <c r="J16" s="2">
         <v>1</v>
       </c>
-      <c r="I16" s="2">
+      <c r="K16" s="2">
         <v>22.3</v>
       </c>
-      <c r="J16" s="2">
+      <c r="L16" s="2">
         <v>23.9</v>
       </c>
-      <c r="K16" s="4">
+      <c r="M16" s="4">
         <v>6483802</v>
       </c>
-      <c r="L16" s="4">
+      <c r="N16" s="4">
         <v>6785668</v>
       </c>
-      <c r="M16" s="4">
+      <c r="O16" s="4">
         <v>6833037</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P16" s="8">
+        <v>863.5</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>53.211111111111109</v>
+      </c>
+      <c r="R16" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -1305,38 +1630,53 @@
       <c r="C17" s="5">
         <v>0</v>
       </c>
-      <c r="D17" s="2">
-        <v>0</v>
-      </c>
-      <c r="E17" s="5">
-        <v>2019</v>
-      </c>
-      <c r="F17" s="2">
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5">
+        <v>2019</v>
+      </c>
+      <c r="G17" s="2">
         <v>201807</v>
       </c>
-      <c r="G17" s="2">
-        <v>2019</v>
-      </c>
       <c r="H17" s="2">
-        <v>0</v>
+        <v>2018</v>
       </c>
       <c r="I17" s="2">
+        <v>2019</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
         <v>22.8</v>
       </c>
-      <c r="J17" s="2">
+      <c r="L17" s="2">
         <v>23.6</v>
       </c>
-      <c r="K17" s="4">
+      <c r="M17" s="4">
         <v>3046355</v>
       </c>
-      <c r="L17" s="4">
+      <c r="N17" s="4">
         <v>3190372</v>
       </c>
-      <c r="M17" s="4">
+      <c r="O17" s="4">
         <v>3200517</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P17" s="8">
+        <v>752.3</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>49.055555555555557</v>
+      </c>
+      <c r="R17" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1346,13 +1686,13 @@
       <c r="C18" s="5">
         <v>0</v>
       </c>
-      <c r="D18" s="2">
-        <v>0</v>
-      </c>
-      <c r="E18" s="5">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2">
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
         <v>0</v>
       </c>
       <c r="G18" s="2">
@@ -1362,22 +1702,37 @@
         <v>0</v>
       </c>
       <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
         <v>24</v>
       </c>
-      <c r="J18" s="2">
+      <c r="L18" s="2">
         <v>26.9</v>
       </c>
-      <c r="K18" s="4">
+      <c r="M18" s="4">
         <v>2853118</v>
       </c>
-      <c r="L18" s="4">
+      <c r="N18" s="4">
         <v>2937847</v>
       </c>
-      <c r="M18" s="4">
+      <c r="O18" s="4">
         <v>2937150</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P18" s="8">
+        <v>790.4</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>55.733333333333334</v>
+      </c>
+      <c r="R18" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -1387,38 +1742,53 @@
       <c r="C19" s="5">
         <v>2017</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="5">
+        <v>2017</v>
+      </c>
+      <c r="E19" s="2">
         <v>201706</v>
       </c>
-      <c r="E19" s="5">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2">
+      <c r="F19" s="5">
         <v>0</v>
       </c>
       <c r="G19" s="2">
-        <v>2017</v>
+        <v>0</v>
       </c>
       <c r="H19" s="2">
+        <v>2017</v>
+      </c>
+      <c r="I19" s="2">
+        <v>2017</v>
+      </c>
+      <c r="J19" s="2">
         <v>1</v>
       </c>
-      <c r="I19" s="2">
+      <c r="K19" s="2">
         <v>23.1</v>
       </c>
-      <c r="J19" s="2">
+      <c r="L19" s="2">
         <v>25.4</v>
       </c>
-      <c r="K19" s="4">
+      <c r="M19" s="4">
         <v>4339367</v>
       </c>
-      <c r="L19" s="4">
+      <c r="N19" s="4">
         <v>4505893</v>
       </c>
-      <c r="M19" s="4">
+      <c r="O19" s="4">
         <v>4512310</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P19" s="8">
+        <v>947.2</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>57.25555555555556</v>
+      </c>
+      <c r="R19" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -1426,40 +1796,55 @@
         <v>0</v>
       </c>
       <c r="C20" s="5">
-        <v>2018</v>
-      </c>
-      <c r="D20" s="2">
+        <v>2017</v>
+      </c>
+      <c r="D20" s="5">
+        <v>2018</v>
+      </c>
+      <c r="E20" s="2">
         <v>201708</v>
       </c>
-      <c r="E20" s="5">
-        <v>2018</v>
-      </c>
-      <c r="F20" s="2">
+      <c r="F20" s="5">
+        <v>2018</v>
+      </c>
+      <c r="G20" s="2">
         <v>201707</v>
       </c>
-      <c r="G20" s="2">
-        <v>2018</v>
-      </c>
       <c r="H20" s="2">
+        <v>2017</v>
+      </c>
+      <c r="I20" s="2">
+        <v>2018</v>
+      </c>
+      <c r="J20" s="2">
         <v>1</v>
       </c>
-      <c r="I20" s="2">
+      <c r="K20" s="2">
         <v>25.3</v>
       </c>
-      <c r="J20" s="2">
+      <c r="L20" s="2">
         <v>29.2</v>
       </c>
-      <c r="K20" s="4">
+      <c r="M20" s="4">
         <v>4533372</v>
       </c>
-      <c r="L20" s="4">
+      <c r="N20" s="4">
         <v>4657749</v>
       </c>
-      <c r="M20" s="4">
+      <c r="O20" s="4">
         <v>4590241</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P20" s="8">
+        <v>905.1</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>68.177777777777777</v>
+      </c>
+      <c r="R20" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -1469,38 +1854,53 @@
       <c r="C21" s="5">
         <v>2017</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="5">
+        <v>2017</v>
+      </c>
+      <c r="E21" s="2">
         <v>201701</v>
       </c>
-      <c r="E21" s="5">
-        <v>2018</v>
-      </c>
-      <c r="F21" s="2">
+      <c r="F21" s="5">
+        <v>2018</v>
+      </c>
+      <c r="G21" s="2">
         <v>201709</v>
       </c>
-      <c r="G21" s="2">
-        <v>2017</v>
-      </c>
       <c r="H21" s="2">
-        <v>0</v>
+        <v>2017</v>
       </c>
       <c r="I21" s="2">
+        <v>2017</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2">
         <v>31.5</v>
       </c>
-      <c r="J21" s="2">
+      <c r="L21" s="2">
         <v>34.5</v>
       </c>
-      <c r="K21" s="4">
+      <c r="M21" s="4">
         <v>1328361</v>
       </c>
-      <c r="L21" s="4">
+      <c r="N21" s="4">
         <v>1362341</v>
       </c>
-      <c r="M21" s="4">
+      <c r="O21" s="4">
         <v>1385340</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P21" s="8">
+        <v>764</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>42.766666666666659</v>
+      </c>
+      <c r="R21" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -1510,38 +1910,53 @@
       <c r="C22" s="5">
         <v>2017</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="5">
+        <v>2017</v>
+      </c>
+      <c r="E22" s="2">
         <v>201705</v>
       </c>
-      <c r="E22" s="5">
-        <v>2019</v>
-      </c>
-      <c r="F22" s="2">
+      <c r="F22" s="5">
+        <v>2019</v>
+      </c>
+      <c r="G22" s="2">
         <v>201807</v>
       </c>
-      <c r="G22" s="2">
-        <v>2017</v>
-      </c>
       <c r="H22" s="2">
-        <v>0</v>
+        <v>2017</v>
       </c>
       <c r="I22" s="2">
+        <v>2017</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2">
         <v>39.9</v>
       </c>
-      <c r="J22" s="2">
+      <c r="L22" s="2">
         <v>41</v>
       </c>
-      <c r="K22" s="4">
+      <c r="M22" s="4">
         <v>5773552</v>
       </c>
-      <c r="L22" s="4">
+      <c r="N22" s="4">
         <v>6177213</v>
       </c>
-      <c r="M22" s="4">
+      <c r="O22" s="4">
         <v>6164660</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P22" s="8">
+        <v>736.7</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>56.466666666666669</v>
+      </c>
+      <c r="R22" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -1551,38 +1966,53 @@
       <c r="C23" s="5">
         <v>2016</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="5">
+        <v>2016</v>
+      </c>
+      <c r="E23" s="2">
         <v>201603</v>
       </c>
-      <c r="E23" s="5">
+      <c r="F23" s="5">
         <v>2016</v>
       </c>
-      <c r="F23" s="2">
+      <c r="G23" s="2">
         <v>201603</v>
       </c>
-      <c r="G23" s="2">
+      <c r="H23" s="2">
         <v>2016</v>
       </c>
-      <c r="H23" s="2">
+      <c r="I23" s="2">
+        <v>2016</v>
+      </c>
+      <c r="J23" s="2">
         <v>1</v>
       </c>
-      <c r="I23" s="2">
+      <c r="K23" s="2">
         <v>43.3</v>
       </c>
-      <c r="J23" s="2">
+      <c r="L23" s="2">
         <v>47.9</v>
       </c>
-      <c r="K23" s="4">
+      <c r="M23" s="4">
         <v>6547629</v>
       </c>
-      <c r="L23" s="4">
+      <c r="N23" s="4">
         <v>7029949</v>
       </c>
-      <c r="M23" s="4">
+      <c r="O23" s="4">
         <v>6981974</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P23" s="8">
+        <v>686.4</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>49.966666666666669</v>
+      </c>
+      <c r="R23" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -1590,40 +2020,55 @@
         <v>0</v>
       </c>
       <c r="C24" s="5">
-        <v>2019</v>
-      </c>
-      <c r="D24" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D24" s="5">
+        <v>2019</v>
+      </c>
+      <c r="E24" s="2">
         <v>201807</v>
       </c>
-      <c r="E24" s="5">
-        <v>0</v>
-      </c>
-      <c r="F24" s="2">
+      <c r="F24" s="5">
         <v>0</v>
       </c>
       <c r="G24" s="2">
-        <v>2019</v>
+        <v>0</v>
       </c>
       <c r="H24" s="2">
-        <v>0</v>
+        <v>2018</v>
       </c>
       <c r="I24" s="2">
+        <v>2019</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2">
         <v>28.8</v>
       </c>
-      <c r="J24" s="2">
+      <c r="L24" s="2">
         <v>33.299999999999997</v>
       </c>
-      <c r="K24" s="4">
+      <c r="M24" s="4">
         <v>9883640</v>
       </c>
-      <c r="L24" s="4">
+      <c r="N24" s="4">
         <v>10077325</v>
       </c>
-      <c r="M24" s="4">
+      <c r="O24" s="4">
         <v>10034113</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P24" s="8">
+        <v>808.2</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>46.022222222222219</v>
+      </c>
+      <c r="R24" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
@@ -1633,38 +2078,53 @@
       <c r="C25" s="5">
         <v>2017</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="5">
+        <v>2017</v>
+      </c>
+      <c r="E25" s="2">
         <v>201707</v>
       </c>
-      <c r="E25" s="5">
-        <v>0</v>
-      </c>
-      <c r="F25" s="2">
+      <c r="F25" s="5">
         <v>0</v>
       </c>
       <c r="G25" s="2">
-        <v>2017</v>
+        <v>0</v>
       </c>
       <c r="H25" s="2">
+        <v>2017</v>
+      </c>
+      <c r="I25" s="2">
+        <v>2017</v>
+      </c>
+      <c r="J25" s="2">
         <v>1</v>
       </c>
-      <c r="I25" s="2">
+      <c r="K25" s="2">
         <v>28.9</v>
       </c>
-      <c r="J25" s="2">
+      <c r="L25" s="2">
         <v>32.5</v>
       </c>
-      <c r="K25" s="4">
+      <c r="M25" s="4">
         <v>5303925</v>
       </c>
-      <c r="L25" s="4">
+      <c r="N25" s="4">
         <v>5706504</v>
       </c>
-      <c r="M25" s="4">
+      <c r="O25" s="4">
         <v>5717184</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P25" s="8">
+        <v>669.8</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>42.344444444444441</v>
+      </c>
+      <c r="R25" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
@@ -1672,40 +2132,55 @@
         <v>0</v>
       </c>
       <c r="C26" s="5">
-        <v>2019</v>
-      </c>
-      <c r="D26" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D26" s="5">
+        <v>2019</v>
+      </c>
+      <c r="E26" s="2">
         <v>201810</v>
       </c>
-      <c r="E26" s="5">
+      <c r="F26" s="5">
         <v>2020</v>
       </c>
-      <c r="F26" s="2">
+      <c r="G26" s="2">
         <v>201908</v>
       </c>
-      <c r="G26" s="2">
-        <v>2020</v>
-      </c>
       <c r="H26" s="2">
+        <v>2018</v>
+      </c>
+      <c r="I26" s="2">
+        <v>2019</v>
+      </c>
+      <c r="J26" s="2">
         <v>1</v>
       </c>
-      <c r="I26" s="2">
+      <c r="K26" s="2">
         <v>18.2</v>
       </c>
-      <c r="J26" s="2">
+      <c r="L26" s="2">
         <v>20.6</v>
       </c>
-      <c r="K26" s="4">
+      <c r="M26" s="4">
         <v>2967297</v>
       </c>
-      <c r="L26" s="4">
+      <c r="N26" s="4">
         <v>2961288</v>
       </c>
-      <c r="M26" s="4">
+      <c r="O26" s="4">
         <v>2940057</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P26" s="8">
+        <v>985.6</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="R26" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
@@ -1713,40 +2188,55 @@
         <v>1</v>
       </c>
       <c r="C27" s="5">
-        <v>2019</v>
-      </c>
-      <c r="D27" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D27" s="5">
+        <v>2019</v>
+      </c>
+      <c r="E27" s="2">
         <v>201808</v>
       </c>
-      <c r="E27" s="5">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2">
+      <c r="F27" s="5">
         <v>0</v>
       </c>
       <c r="G27" s="2">
-        <v>2019</v>
+        <v>0</v>
       </c>
       <c r="H27" s="2">
-        <v>0</v>
+        <v>2018</v>
       </c>
       <c r="I27" s="2">
+        <v>2019</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2">
         <v>26.1</v>
       </c>
-      <c r="J27" s="2">
+      <c r="L27" s="2">
         <v>29.8</v>
       </c>
-      <c r="K27" s="4">
+      <c r="M27" s="4">
         <v>5988927</v>
       </c>
-      <c r="L27" s="4">
+      <c r="N27" s="4">
         <v>6154920</v>
       </c>
-      <c r="M27" s="4">
+      <c r="O27" s="4">
         <v>6177957</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P27" s="8">
+        <v>837.6</v>
+      </c>
+      <c r="Q27" s="6">
+        <v>56.12222222222222</v>
+      </c>
+      <c r="R27" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
@@ -1754,40 +2244,55 @@
         <v>0</v>
       </c>
       <c r="C28" s="5">
+        <v>2019</v>
+      </c>
+      <c r="D28" s="5">
         <v>2020</v>
       </c>
-      <c r="D28" s="2">
+      <c r="E28" s="2">
         <v>201910</v>
       </c>
-      <c r="E28" s="5">
-        <v>0</v>
-      </c>
-      <c r="F28" s="2">
+      <c r="F28" s="5">
         <v>0</v>
       </c>
       <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>2019</v>
+      </c>
+      <c r="I28" s="2">
         <v>2020</v>
       </c>
-      <c r="H28" s="2">
-        <v>0</v>
-      </c>
-      <c r="I28" s="2">
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2">
         <v>22.9</v>
       </c>
-      <c r="J28" s="2">
+      <c r="L28" s="2">
         <v>26.2</v>
       </c>
-      <c r="K28" s="4">
+      <c r="M28" s="4">
         <v>989415</v>
       </c>
-      <c r="L28" s="4">
+      <c r="N28" s="4">
         <v>1084197</v>
       </c>
-      <c r="M28" s="4">
+      <c r="O28" s="4">
         <v>1122867</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P28" s="8">
+        <v>763.1</v>
+      </c>
+      <c r="Q28" s="6">
+        <v>43.022222222222219</v>
+      </c>
+      <c r="R28" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
@@ -1795,40 +2300,55 @@
         <v>0</v>
       </c>
       <c r="C29" s="5">
-        <v>2019</v>
-      </c>
-      <c r="D29" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D29" s="5">
+        <v>2019</v>
+      </c>
+      <c r="E29" s="2">
         <v>201807</v>
       </c>
-      <c r="E29" s="5">
-        <v>2017</v>
-      </c>
-      <c r="F29" s="2">
+      <c r="F29" s="5">
+        <v>2017</v>
+      </c>
+      <c r="G29" s="2">
         <v>201610</v>
       </c>
-      <c r="G29" s="2">
-        <v>2017</v>
-      </c>
       <c r="H29" s="2">
-        <v>0</v>
+        <v>2016</v>
       </c>
       <c r="I29" s="2">
+        <v>2017</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2">
         <v>25</v>
       </c>
-      <c r="J29" s="2">
+      <c r="L29" s="2">
         <v>27.2</v>
       </c>
-      <c r="K29" s="4">
+      <c r="M29" s="4">
         <v>1826341</v>
       </c>
-      <c r="L29" s="4">
+      <c r="N29" s="4">
         <v>1961489</v>
       </c>
-      <c r="M29" s="4">
+      <c r="O29" s="4">
         <v>1967923</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P29" s="8">
+        <v>737.7</v>
+      </c>
+      <c r="Q29" s="6">
+        <v>50.077777777777776</v>
+      </c>
+      <c r="R29" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
@@ -1838,38 +2358,53 @@
       <c r="C30" s="5">
         <v>2018</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="5">
+        <v>2018</v>
+      </c>
+      <c r="E30" s="2">
         <v>201801</v>
       </c>
-      <c r="E30" s="5">
-        <v>2017</v>
-      </c>
-      <c r="F30" s="2">
+      <c r="F30" s="5">
+        <v>2017</v>
+      </c>
+      <c r="G30" s="2">
         <v>201705</v>
       </c>
-      <c r="G30" s="2">
-        <v>2017</v>
-      </c>
       <c r="H30" s="2">
+        <v>2017</v>
+      </c>
+      <c r="I30" s="2">
+        <v>2017</v>
+      </c>
+      <c r="J30" s="2">
         <v>1</v>
       </c>
-      <c r="I30" s="2">
+      <c r="K30" s="2">
         <v>19.8</v>
       </c>
-      <c r="J30" s="2">
+      <c r="L30" s="2">
         <v>21.8</v>
       </c>
-      <c r="K30" s="4">
+      <c r="M30" s="4">
         <v>2700551</v>
       </c>
-      <c r="L30" s="4">
+      <c r="N30" s="4">
         <v>3104624</v>
       </c>
-      <c r="M30" s="4">
+      <c r="O30" s="4">
         <v>3177772</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P30" s="8">
+        <v>777.7</v>
+      </c>
+      <c r="Q30" s="6">
+        <v>51.711111111111109</v>
+      </c>
+      <c r="R30" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
@@ -1879,38 +2414,53 @@
       <c r="C31" s="5">
         <v>2017</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="5">
+        <v>2017</v>
+      </c>
+      <c r="E31" s="2">
         <v>201701</v>
       </c>
-      <c r="E31" s="5">
+      <c r="F31" s="5">
         <v>2016</v>
       </c>
-      <c r="F31" s="2">
+      <c r="G31" s="2">
         <v>201606</v>
       </c>
-      <c r="G31" s="2">
+      <c r="H31" s="2">
         <v>2016</v>
       </c>
-      <c r="H31" s="2">
+      <c r="I31" s="2">
+        <v>2016</v>
+      </c>
+      <c r="J31" s="2">
         <v>1</v>
       </c>
-      <c r="I31" s="2">
+      <c r="K31" s="2">
         <v>29.2</v>
       </c>
-      <c r="J31" s="2">
+      <c r="L31" s="2">
         <v>33.200000000000003</v>
       </c>
-      <c r="K31" s="4">
+      <c r="M31" s="4">
         <v>1316470</v>
       </c>
-      <c r="L31" s="4">
+      <c r="N31" s="4">
         <v>1377518</v>
       </c>
-      <c r="M31" s="4">
+      <c r="O31" s="4">
         <v>1395231</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P31" s="8">
+        <v>719.1</v>
+      </c>
+      <c r="Q31" s="6">
+        <v>45.12222222222222</v>
+      </c>
+      <c r="R31" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
@@ -1920,38 +2470,53 @@
       <c r="C32" s="5">
         <v>2017</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="5">
+        <v>2017</v>
+      </c>
+      <c r="E32" s="2">
         <v>201705</v>
       </c>
-      <c r="E32" s="5">
-        <v>0</v>
-      </c>
-      <c r="F32" s="2">
+      <c r="F32" s="5">
         <v>0</v>
       </c>
       <c r="G32" s="2">
-        <v>2017</v>
+        <v>0</v>
       </c>
       <c r="H32" s="2">
+        <v>2017</v>
+      </c>
+      <c r="I32" s="2">
+        <v>2017</v>
+      </c>
+      <c r="J32" s="2">
         <v>1</v>
       </c>
-      <c r="I32" s="2">
+      <c r="K32" s="2">
         <v>32.5</v>
       </c>
-      <c r="J32" s="2">
+      <c r="L32" s="2">
         <v>34.6</v>
       </c>
-      <c r="K32" s="4">
+      <c r="M32" s="4">
         <v>8791894</v>
       </c>
-      <c r="L32" s="4">
+      <c r="N32" s="4">
         <v>9289031</v>
       </c>
-      <c r="M32" s="4">
+      <c r="O32" s="4">
         <v>9261699</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P32" s="8">
+        <v>700.3</v>
+      </c>
+      <c r="Q32" s="6">
+        <v>54.722222222222229</v>
+      </c>
+      <c r="R32" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
@@ -1961,38 +2526,53 @@
       <c r="C33" s="5">
         <v>0</v>
       </c>
-      <c r="D33" s="2">
-        <v>0</v>
-      </c>
-      <c r="E33" s="5">
-        <v>0</v>
-      </c>
-      <c r="F33" s="2">
+      <c r="D33" s="5">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="5">
         <v>0</v>
       </c>
       <c r="G33" s="2">
         <v>0</v>
       </c>
       <c r="H33" s="2">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2">
         <v>1</v>
       </c>
-      <c r="I33" s="2">
+      <c r="K33" s="2">
         <v>24.1</v>
       </c>
-      <c r="J33" s="2">
+      <c r="L33" s="2">
         <v>25.9</v>
       </c>
-      <c r="K33" s="4">
+      <c r="M33" s="4">
         <v>2059179</v>
       </c>
-      <c r="L33" s="4">
+      <c r="N33" s="4">
         <v>2117527</v>
       </c>
-      <c r="M33" s="4">
+      <c r="O33" s="4">
         <v>2113344</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P33" s="8">
+        <v>788.6</v>
+      </c>
+      <c r="Q33" s="6">
+        <v>55.355555555555554</v>
+      </c>
+      <c r="R33" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
@@ -2000,40 +2580,55 @@
         <v>0</v>
       </c>
       <c r="C34" s="5">
-        <v>2017</v>
-      </c>
-      <c r="D34" s="2">
+        <v>2016</v>
+      </c>
+      <c r="D34" s="5">
+        <v>2017</v>
+      </c>
+      <c r="E34" s="2">
         <v>201607</v>
       </c>
-      <c r="E34" s="5">
-        <v>0</v>
-      </c>
-      <c r="F34" s="2">
+      <c r="F34" s="5">
         <v>0</v>
       </c>
       <c r="G34" s="2">
-        <v>2017</v>
+        <v>0</v>
       </c>
       <c r="H34" s="2">
+        <v>2016</v>
+      </c>
+      <c r="I34" s="2">
+        <v>2017</v>
+      </c>
+      <c r="J34" s="2">
         <v>1</v>
       </c>
-      <c r="I34" s="2">
+      <c r="K34" s="2">
         <v>37.299999999999997</v>
       </c>
-      <c r="J34" s="2">
+      <c r="L34" s="2">
         <v>39.9</v>
       </c>
-      <c r="K34" s="4">
+      <c r="M34" s="4">
         <v>19378102</v>
       </c>
-      <c r="L34" s="4">
+      <c r="N34" s="4">
         <v>20201230</v>
       </c>
-      <c r="M34" s="4">
+      <c r="O34" s="4">
         <v>19677151</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P34" s="8">
+        <v>659.1</v>
+      </c>
+      <c r="Q34" s="6">
+        <v>46.888888888888886</v>
+      </c>
+      <c r="R34" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>32</v>
       </c>
@@ -2043,38 +2638,53 @@
       <c r="C35" s="5">
         <v>2018</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="5">
+        <v>2018</v>
+      </c>
+      <c r="E35" s="2">
         <v>201801</v>
       </c>
-      <c r="E35" s="5">
-        <v>2018</v>
-      </c>
-      <c r="F35" s="2">
+      <c r="F35" s="5">
+        <v>2018</v>
+      </c>
+      <c r="G35" s="2">
         <v>201708</v>
       </c>
-      <c r="G35" s="2">
-        <v>2018</v>
-      </c>
       <c r="H35" s="2">
+        <v>2017</v>
+      </c>
+      <c r="I35" s="2">
+        <v>2018</v>
+      </c>
+      <c r="J35" s="2">
         <v>1</v>
       </c>
-      <c r="I35" s="2">
+      <c r="K35" s="2">
         <v>25</v>
       </c>
-      <c r="J35" s="2">
+      <c r="L35" s="2">
         <v>27.5</v>
       </c>
-      <c r="K35" s="4">
+      <c r="M35" s="4">
         <v>9535483</v>
       </c>
-      <c r="L35" s="4">
+      <c r="N35" s="4">
         <v>10439414</v>
       </c>
-      <c r="M35" s="4">
+      <c r="O35" s="4">
         <v>10698973</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P35" s="8">
+        <v>793.8</v>
+      </c>
+      <c r="Q35" s="6">
+        <v>60.622222222222227</v>
+      </c>
+      <c r="R35" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
@@ -2084,38 +2694,53 @@
       <c r="C36" s="5">
         <v>0</v>
       </c>
-      <c r="D36" s="2">
-        <v>0</v>
-      </c>
-      <c r="E36" s="5">
-        <v>0</v>
-      </c>
-      <c r="F36" s="2">
+      <c r="D36" s="5">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+      <c r="F36" s="5">
         <v>0</v>
       </c>
       <c r="G36" s="2">
         <v>0</v>
       </c>
       <c r="H36" s="2">
+        <v>0</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2">
         <v>1</v>
       </c>
-      <c r="I36" s="2">
+      <c r="K36" s="2">
         <v>25.1</v>
       </c>
-      <c r="J36" s="2">
+      <c r="L36" s="2">
         <v>25.5</v>
       </c>
-      <c r="K36" s="4">
+      <c r="M36" s="4">
         <v>672591</v>
       </c>
-      <c r="L36" s="4">
+      <c r="N36" s="4">
         <v>779091</v>
       </c>
-      <c r="M36" s="4">
+      <c r="O36" s="4">
         <v>779261</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P36" s="8">
+        <v>723.6</v>
+      </c>
+      <c r="Q36" s="6">
+        <v>41.677777777777777</v>
+      </c>
+      <c r="R36" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
@@ -2123,40 +2748,55 @@
         <v>0</v>
       </c>
       <c r="C37" s="5">
-        <v>2018</v>
-      </c>
-      <c r="D37" s="2">
+        <v>2017</v>
+      </c>
+      <c r="D37" s="5">
+        <v>2018</v>
+      </c>
+      <c r="E37" s="2">
         <v>201708</v>
       </c>
-      <c r="E37" s="5">
-        <v>0</v>
-      </c>
-      <c r="F37" s="2">
+      <c r="F37" s="5">
         <v>0</v>
       </c>
       <c r="G37" s="2">
-        <v>2018</v>
+        <v>0</v>
       </c>
       <c r="H37" s="2">
+        <v>2017</v>
+      </c>
+      <c r="I37" s="2">
+        <v>2018</v>
+      </c>
+      <c r="J37" s="2">
         <v>1</v>
       </c>
-      <c r="I37" s="2">
+      <c r="K37" s="2">
         <v>28.3</v>
       </c>
-      <c r="J37" s="2">
+      <c r="L37" s="2">
         <v>31.9</v>
       </c>
-      <c r="K37" s="4">
+      <c r="M37" s="4">
         <v>11536504</v>
       </c>
-      <c r="L37" s="4">
+      <c r="N37" s="4">
         <v>11799374</v>
       </c>
-      <c r="M37" s="4">
+      <c r="O37" s="4">
         <v>11756058</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P37" s="8">
+        <v>860.7</v>
+      </c>
+      <c r="Q37" s="6">
+        <v>52.711111111111109</v>
+      </c>
+      <c r="R37" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
@@ -2164,40 +2804,55 @@
         <v>0</v>
       </c>
       <c r="C38" s="5">
-        <v>2019</v>
-      </c>
-      <c r="D38" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D38" s="5">
+        <v>2019</v>
+      </c>
+      <c r="E38" s="2">
         <v>201811</v>
       </c>
-      <c r="E38" s="5">
-        <v>0</v>
-      </c>
-      <c r="F38" s="2">
+      <c r="F38" s="5">
         <v>0</v>
       </c>
       <c r="G38" s="2">
-        <v>2019</v>
+        <v>0</v>
       </c>
       <c r="H38" s="2">
+        <v>2018</v>
+      </c>
+      <c r="I38" s="2">
+        <v>2019</v>
+      </c>
+      <c r="J38" s="2">
         <v>1</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>21</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>22.6</v>
       </c>
-      <c r="K38" s="4">
+      <c r="M38" s="4">
         <v>3751351</v>
       </c>
-      <c r="L38" s="4">
+      <c r="N38" s="4">
         <v>3959346</v>
       </c>
-      <c r="M38" s="4">
+      <c r="O38" s="4">
         <v>4019800</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P38" s="8">
+        <v>915.9</v>
+      </c>
+      <c r="Q38" s="6">
+        <v>61.022222222222211</v>
+      </c>
+      <c r="R38" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>36</v>
       </c>
@@ -2207,38 +2862,53 @@
       <c r="C39" s="5">
         <v>0</v>
       </c>
-      <c r="D39" s="2">
-        <v>0</v>
-      </c>
-      <c r="E39" s="5">
-        <v>2019</v>
-      </c>
-      <c r="F39" s="2">
+      <c r="D39" s="5">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
+      <c r="F39" s="5">
+        <v>2019</v>
+      </c>
+      <c r="G39" s="2">
         <v>201906</v>
       </c>
-      <c r="G39" s="2">
-        <v>2019</v>
-      </c>
       <c r="H39" s="2">
-        <v>0</v>
+        <v>2019</v>
       </c>
       <c r="I39" s="2">
+        <v>2019</v>
+      </c>
+      <c r="J39" s="2">
+        <v>0</v>
+      </c>
+      <c r="K39" s="2">
         <v>28</v>
       </c>
-      <c r="J39" s="2">
+      <c r="L39" s="2">
         <v>31.6</v>
       </c>
-      <c r="K39" s="4">
+      <c r="M39" s="4">
         <v>3831074</v>
       </c>
-      <c r="L39" s="4">
+      <c r="N39" s="4">
         <v>4237291</v>
       </c>
-      <c r="M39" s="4">
+      <c r="O39" s="4">
         <v>4240137</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P39" s="8">
+        <v>713.9</v>
+      </c>
+      <c r="Q39" s="6">
+        <v>48.56666666666667</v>
+      </c>
+      <c r="R39" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>37</v>
       </c>
@@ -2248,38 +2918,53 @@
       <c r="C40" s="5">
         <v>2017</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="5">
+        <v>2017</v>
+      </c>
+      <c r="E40" s="2">
         <v>201701</v>
       </c>
-      <c r="E40" s="5">
-        <v>0</v>
-      </c>
-      <c r="F40" s="2">
+      <c r="F40" s="5">
         <v>0</v>
       </c>
       <c r="G40" s="2">
-        <v>2017</v>
+        <v>0</v>
       </c>
       <c r="H40" s="2">
+        <v>2017</v>
+      </c>
+      <c r="I40" s="2">
+        <v>2017</v>
+      </c>
+      <c r="J40" s="2">
         <v>1</v>
       </c>
-      <c r="I40" s="2">
+      <c r="K40" s="2">
         <v>32.700000000000003</v>
       </c>
-      <c r="J40" s="2">
+      <c r="L40" s="2">
         <v>35.700000000000003</v>
       </c>
-      <c r="K40" s="4">
+      <c r="M40" s="4">
         <v>12702379</v>
       </c>
-      <c r="L40" s="4">
+      <c r="N40" s="4">
         <v>13002689</v>
       </c>
-      <c r="M40" s="4">
+      <c r="O40" s="4">
         <v>12972008</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P40" s="8">
+        <v>783.3</v>
+      </c>
+      <c r="Q40" s="6">
+        <v>50.466666666666669</v>
+      </c>
+      <c r="R40" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>38</v>
       </c>
@@ -2289,38 +2974,53 @@
       <c r="C41" s="5">
         <v>2017</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="5">
+        <v>2017</v>
+      </c>
+      <c r="E41" s="2">
         <v>201703</v>
       </c>
-      <c r="E41" s="5">
-        <v>0</v>
-      </c>
-      <c r="F41" s="2">
+      <c r="F41" s="5">
         <v>0</v>
       </c>
       <c r="G41" s="2">
-        <v>2017</v>
+        <v>0</v>
       </c>
       <c r="H41" s="2">
+        <v>2017</v>
+      </c>
+      <c r="I41" s="2">
+        <v>2017</v>
+      </c>
+      <c r="J41" s="2">
         <v>1</v>
       </c>
-      <c r="I41" s="2">
+      <c r="K41" s="2">
         <v>37</v>
       </c>
-      <c r="J41" s="2">
+      <c r="L41" s="2">
         <v>42.9</v>
       </c>
-      <c r="K41" s="4">
+      <c r="M41" s="4">
         <v>1052567</v>
       </c>
-      <c r="L41" s="4">
+      <c r="N41" s="4">
         <v>1097371</v>
       </c>
-      <c r="M41" s="4">
+      <c r="O41" s="4">
         <v>1093734</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P41" s="8">
+        <v>724.3</v>
+      </c>
+      <c r="Q41" s="6">
+        <v>51.833333333333343</v>
+      </c>
+      <c r="R41" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>39</v>
       </c>
@@ -2330,38 +3030,53 @@
       <c r="C42" s="5">
         <v>2018</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="5">
+        <v>2018</v>
+      </c>
+      <c r="E42" s="2">
         <v>201805</v>
       </c>
-      <c r="E42" s="5">
-        <v>2018</v>
-      </c>
-      <c r="F42" s="2">
+      <c r="F42" s="5">
+        <v>2018</v>
+      </c>
+      <c r="G42" s="2">
         <v>201805</v>
       </c>
-      <c r="G42" s="2">
-        <v>2018</v>
-      </c>
       <c r="H42" s="2">
-        <v>0</v>
+        <v>2018</v>
       </c>
       <c r="I42" s="2">
+        <v>2018</v>
+      </c>
+      <c r="J42" s="2">
+        <v>0</v>
+      </c>
+      <c r="K42" s="2">
         <v>22.8</v>
       </c>
-      <c r="J42" s="2">
+      <c r="L42" s="2">
         <v>24.7</v>
       </c>
-      <c r="K42" s="4">
+      <c r="M42" s="4">
         <v>4625364</v>
       </c>
-      <c r="L42" s="4">
+      <c r="N42" s="4">
         <v>5118429</v>
       </c>
-      <c r="M42" s="4">
+      <c r="O42" s="4">
         <v>5282634</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P42" s="8">
+        <v>846.1</v>
+      </c>
+      <c r="Q42" s="6">
+        <v>64.455555555555563</v>
+      </c>
+      <c r="R42" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>40</v>
       </c>
@@ -2371,38 +3086,53 @@
       <c r="C43" s="5">
         <v>0</v>
       </c>
-      <c r="D43" s="2">
-        <v>0</v>
-      </c>
-      <c r="E43" s="5">
+      <c r="D43" s="5">
+        <v>0</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0</v>
+      </c>
+      <c r="F43" s="5">
         <v>2020</v>
       </c>
-      <c r="F43" s="2">
+      <c r="G43" s="2">
         <v>201910</v>
       </c>
-      <c r="G43" s="2">
+      <c r="H43" s="2">
+        <v>2019</v>
+      </c>
+      <c r="I43" s="2">
         <v>2020</v>
       </c>
-      <c r="H43" s="2">
-        <v>0</v>
-      </c>
-      <c r="I43" s="2">
+      <c r="J43" s="2">
+        <v>0</v>
+      </c>
+      <c r="K43" s="2">
         <v>23.4</v>
       </c>
-      <c r="J43" s="2">
+      <c r="L43" s="2">
         <v>25.8</v>
       </c>
-      <c r="K43" s="4">
+      <c r="M43" s="4">
         <v>814180</v>
       </c>
-      <c r="L43" s="4">
+      <c r="N43" s="4">
         <v>886677</v>
       </c>
-      <c r="M43" s="4">
+      <c r="O43" s="4">
         <v>909824</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P43" s="8">
+        <v>760.2</v>
+      </c>
+      <c r="Q43" s="6">
+        <v>46.199999999999996</v>
+      </c>
+      <c r="R43" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>41</v>
       </c>
@@ -2410,40 +3140,55 @@
         <v>1</v>
       </c>
       <c r="C44" s="5">
-        <v>2019</v>
-      </c>
-      <c r="D44" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D44" s="5">
+        <v>2019</v>
+      </c>
+      <c r="E44" s="2">
         <v>201807</v>
       </c>
-      <c r="E44" s="5">
-        <v>2019</v>
-      </c>
-      <c r="F44" s="2">
+      <c r="F44" s="5">
+        <v>2019</v>
+      </c>
+      <c r="G44" s="2">
         <v>201902</v>
       </c>
-      <c r="G44" s="2">
-        <v>2019</v>
-      </c>
       <c r="H44" s="2">
+        <v>2018</v>
+      </c>
+      <c r="I44" s="2">
+        <v>2019</v>
+      </c>
+      <c r="J44" s="2">
         <v>1</v>
       </c>
-      <c r="I44" s="2">
+      <c r="K44" s="2">
         <v>26.2</v>
       </c>
-      <c r="J44" s="2">
+      <c r="L44" s="2">
         <v>27.7</v>
       </c>
-      <c r="K44" s="4">
+      <c r="M44" s="4">
         <v>6346105</v>
       </c>
-      <c r="L44" s="4">
+      <c r="N44" s="4">
         <v>6910786</v>
       </c>
-      <c r="M44" s="4">
+      <c r="O44" s="4">
         <v>7051339</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P44" s="8">
+        <v>916.2</v>
+      </c>
+      <c r="Q44" s="6">
+        <v>59.43333333333333</v>
+      </c>
+      <c r="R44" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>42</v>
       </c>
@@ -2451,40 +3196,55 @@
         <v>0</v>
       </c>
       <c r="C45" s="5">
+        <v>2019</v>
+      </c>
+      <c r="D45" s="5">
         <v>2020</v>
       </c>
-      <c r="D45" s="2">
+      <c r="E45" s="2">
         <v>201909</v>
       </c>
-      <c r="E45" s="5">
-        <v>2018</v>
-      </c>
-      <c r="F45" s="2">
+      <c r="F45" s="5">
+        <v>2018</v>
+      </c>
+      <c r="G45" s="2">
         <v>201801</v>
       </c>
-      <c r="G45" s="2">
-        <v>2018</v>
-      </c>
       <c r="H45" s="2">
-        <v>0</v>
+        <v>2018</v>
       </c>
       <c r="I45" s="2">
+        <v>2018</v>
+      </c>
+      <c r="J45" s="2">
+        <v>0</v>
+      </c>
+      <c r="K45" s="2">
         <v>21.6</v>
       </c>
-      <c r="J45" s="2">
+      <c r="L45" s="2">
         <v>24.3</v>
       </c>
-      <c r="K45" s="4">
+      <c r="M45" s="4">
         <v>25145561</v>
       </c>
-      <c r="L45" s="4">
+      <c r="N45" s="4">
         <v>29145428</v>
       </c>
-      <c r="M45" s="4">
+      <c r="O45" s="4">
         <v>30029572</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P45" s="8">
+        <v>761.9</v>
+      </c>
+      <c r="Q45" s="6">
+        <v>66.644444444444446</v>
+      </c>
+      <c r="R45" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>43</v>
       </c>
@@ -2494,38 +3254,53 @@
       <c r="C46" s="5">
         <v>2017</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="5">
+        <v>2017</v>
+      </c>
+      <c r="E46" s="2">
         <v>201705</v>
       </c>
-      <c r="E46" s="5">
+      <c r="F46" s="5">
         <v>2020</v>
       </c>
-      <c r="F46" s="2">
+      <c r="G46" s="2">
         <v>201907</v>
       </c>
-      <c r="G46" s="2">
-        <v>2017</v>
-      </c>
       <c r="H46" s="2">
-        <v>0</v>
+        <v>2017</v>
       </c>
       <c r="I46" s="2">
+        <v>2017</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0</v>
+      </c>
+      <c r="K46" s="2">
         <v>21</v>
       </c>
-      <c r="J46" s="2">
+      <c r="L46" s="2">
         <v>23.9</v>
       </c>
-      <c r="K46" s="4">
+      <c r="M46" s="4">
         <v>2763885</v>
       </c>
-      <c r="L46" s="4">
+      <c r="N46" s="4">
         <v>3271614</v>
       </c>
-      <c r="M46" s="4">
+      <c r="O46" s="4">
         <v>3380800</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P46" s="8">
+        <v>717</v>
+      </c>
+      <c r="Q46" s="6">
+        <v>49.888888888888886</v>
+      </c>
+      <c r="R46" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>44</v>
       </c>
@@ -2533,40 +3308,55 @@
         <v>0</v>
       </c>
       <c r="C47" s="5">
-        <v>2018</v>
-      </c>
-      <c r="D47" s="2">
+        <v>2017</v>
+      </c>
+      <c r="D47" s="5">
+        <v>2018</v>
+      </c>
+      <c r="E47" s="2">
         <v>201707</v>
       </c>
-      <c r="E47" s="5">
-        <v>0</v>
-      </c>
-      <c r="F47" s="2">
+      <c r="F47" s="5">
         <v>0</v>
       </c>
       <c r="G47" s="2">
-        <v>2018</v>
+        <v>0</v>
       </c>
       <c r="H47" s="2">
+        <v>2017</v>
+      </c>
+      <c r="I47" s="2">
+        <v>2018</v>
+      </c>
+      <c r="J47" s="2">
         <v>1</v>
       </c>
-      <c r="I47" s="2">
+      <c r="K47" s="2">
         <v>35.9</v>
       </c>
-      <c r="J47" s="2">
+      <c r="L47" s="2">
         <v>41.6</v>
       </c>
-      <c r="K47" s="4">
+      <c r="M47" s="4">
         <v>625741</v>
       </c>
-      <c r="L47" s="4">
+      <c r="N47" s="4">
         <v>643085</v>
       </c>
-      <c r="M47" s="4">
+      <c r="O47" s="4">
         <v>647064</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P47" s="8">
+        <v>712.8</v>
+      </c>
+      <c r="Q47" s="6">
+        <v>44</v>
+      </c>
+      <c r="R47" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>45</v>
       </c>
@@ -2576,38 +3366,53 @@
       <c r="C48" s="5">
         <v>2017</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="5">
+        <v>2017</v>
+      </c>
+      <c r="E48" s="2">
         <v>201703</v>
       </c>
-      <c r="E48" s="5">
-        <v>0</v>
-      </c>
-      <c r="F48" s="2">
+      <c r="F48" s="5">
         <v>0</v>
       </c>
       <c r="G48" s="2">
-        <v>2017</v>
+        <v>0</v>
       </c>
       <c r="H48" s="2">
+        <v>2017</v>
+      </c>
+      <c r="I48" s="2">
+        <v>2017</v>
+      </c>
+      <c r="J48" s="2">
         <v>1</v>
       </c>
-      <c r="I48" s="2">
+      <c r="K48" s="2">
         <v>27.4</v>
       </c>
-      <c r="J48" s="2">
+      <c r="L48" s="2">
         <v>29</v>
       </c>
-      <c r="K48" s="4">
+      <c r="M48" s="4">
         <v>8001024</v>
       </c>
-      <c r="L48" s="4">
+      <c r="N48" s="4">
         <v>8631384</v>
       </c>
-      <c r="M48" s="4">
+      <c r="O48" s="4">
         <v>8683619</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P48" s="8">
+        <v>729.3</v>
+      </c>
+      <c r="Q48" s="6">
+        <v>57.022222222222226</v>
+      </c>
+      <c r="R48" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>46</v>
       </c>
@@ -2617,38 +3422,53 @@
       <c r="C49" s="5">
         <v>2019</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="5">
+        <v>2019</v>
+      </c>
+      <c r="E49" s="2">
         <v>201901</v>
       </c>
-      <c r="E49" s="5">
+      <c r="F49" s="5">
         <v>2020</v>
       </c>
-      <c r="F49" s="2">
+      <c r="G49" s="2">
         <v>201911</v>
       </c>
-      <c r="G49" s="2">
-        <v>2019</v>
-      </c>
       <c r="H49" s="2">
+        <v>2019</v>
+      </c>
+      <c r="I49" s="2">
+        <v>2019</v>
+      </c>
+      <c r="J49" s="2">
         <v>1</v>
       </c>
-      <c r="I49" s="2">
+      <c r="K49" s="2">
         <v>27</v>
       </c>
-      <c r="J49" s="2">
+      <c r="L49" s="2">
         <v>29.1</v>
       </c>
-      <c r="K49" s="4">
+      <c r="M49" s="4">
         <v>6724540</v>
       </c>
-      <c r="L49" s="4">
+      <c r="N49" s="4">
         <v>7705247</v>
       </c>
-      <c r="M49" s="4">
+      <c r="O49" s="4">
         <v>7785786</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P49" s="8">
+        <v>684.5</v>
+      </c>
+      <c r="Q49" s="6">
+        <v>47.988888888888887</v>
+      </c>
+      <c r="R49" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>47</v>
       </c>
@@ -2656,40 +3476,55 @@
         <v>0</v>
       </c>
       <c r="C50" s="5">
-        <v>2019</v>
-      </c>
-      <c r="D50" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D50" s="5">
+        <v>2019</v>
+      </c>
+      <c r="E50" s="2">
         <v>201807</v>
       </c>
-      <c r="E50" s="5">
-        <v>0</v>
-      </c>
-      <c r="F50" s="2">
+      <c r="F50" s="5">
         <v>0</v>
       </c>
       <c r="G50" s="2">
-        <v>2019</v>
+        <v>0</v>
       </c>
       <c r="H50" s="2">
+        <v>2018</v>
+      </c>
+      <c r="I50" s="2">
+        <v>2019</v>
+      </c>
+      <c r="J50" s="2">
         <v>1</v>
       </c>
-      <c r="I50" s="2">
+      <c r="K50" s="2">
         <v>25.8</v>
       </c>
-      <c r="J50" s="2">
+      <c r="L50" s="2">
         <v>28.4</v>
       </c>
-      <c r="K50" s="4">
+      <c r="M50" s="4">
         <v>1852994</v>
       </c>
-      <c r="L50" s="4">
+      <c r="N50" s="4">
         <v>1793755</v>
       </c>
-      <c r="M50" s="4">
+      <c r="O50" s="4">
         <v>1775156</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P50" s="8">
+        <v>966.4</v>
+      </c>
+      <c r="Q50" s="6">
+        <v>53.62222222222222</v>
+      </c>
+      <c r="R50" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>48</v>
       </c>
@@ -2699,38 +3534,53 @@
       <c r="C51" s="5">
         <v>0</v>
       </c>
-      <c r="D51" s="2">
-        <v>0</v>
-      </c>
-      <c r="E51" s="5">
-        <v>0</v>
-      </c>
-      <c r="F51" s="2">
+      <c r="D51" s="5">
+        <v>0</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0</v>
+      </c>
+      <c r="F51" s="5">
         <v>0</v>
       </c>
       <c r="G51" s="2">
-        <v>2017</v>
+        <v>0</v>
       </c>
       <c r="H51" s="2">
-        <v>0</v>
+        <v>2017</v>
       </c>
       <c r="I51" s="2">
+        <v>2017</v>
+      </c>
+      <c r="J51" s="2">
+        <v>0</v>
+      </c>
+      <c r="K51" s="2">
         <v>26.5</v>
       </c>
-      <c r="J51" s="2">
+      <c r="L51" s="2">
         <v>28.3</v>
       </c>
-      <c r="K51" s="4">
+      <c r="M51" s="4">
         <v>5686986</v>
       </c>
-      <c r="L51" s="4">
+      <c r="N51" s="4">
         <v>5893725</v>
       </c>
-      <c r="M51" s="4">
+      <c r="O51" s="4">
         <v>5892539</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P51" s="8">
+        <v>745.4</v>
+      </c>
+      <c r="Q51" s="6">
+        <v>44.533333333333331</v>
+      </c>
+      <c r="R51" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>49</v>
       </c>
@@ -2738,37 +3588,52 @@
         <v>0</v>
       </c>
       <c r="C52" s="5">
+        <v>2019</v>
+      </c>
+      <c r="D52" s="5">
         <v>2020</v>
       </c>
-      <c r="D52" s="2">
+      <c r="E52" s="2">
         <v>201907</v>
       </c>
-      <c r="E52" s="5">
-        <v>0</v>
-      </c>
-      <c r="F52" s="2">
+      <c r="F52" s="5">
         <v>0</v>
       </c>
       <c r="G52" s="2">
+        <v>0</v>
+      </c>
+      <c r="H52" s="2">
+        <v>2019</v>
+      </c>
+      <c r="I52" s="2">
         <v>2020</v>
       </c>
-      <c r="H52" s="2">
-        <v>0</v>
-      </c>
-      <c r="I52" s="2">
+      <c r="J52" s="2">
+        <v>0</v>
+      </c>
+      <c r="K52" s="2">
         <v>19.7</v>
       </c>
-      <c r="J52" s="2">
+      <c r="L52" s="2">
         <v>21.1</v>
       </c>
-      <c r="K52" s="4">
+      <c r="M52" s="4">
         <v>563626</v>
       </c>
-      <c r="L52" s="4">
+      <c r="N52" s="4">
         <v>576837</v>
       </c>
-      <c r="M52" s="4">
+      <c r="O52" s="4">
         <v>581381</v>
+      </c>
+      <c r="P52" s="8">
+        <v>752.4</v>
+      </c>
+      <c r="Q52" s="6">
+        <v>42.722222222222229</v>
+      </c>
+      <c r="R52" s="10" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Data/auxiliary_data.xlsx
+++ b/Data/auxiliary_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9adb48ff0228f9c1/Thesis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="952" documentId="11_F25DC773A252ABDACC10483D791960605BDE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8A9A744-B228-45B4-86AD-44C169BFA898}"/>
+  <xr:revisionPtr revIDLastSave="1010" documentId="11_F25DC773A252ABDACC10483D791960605BDE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{981AE7CE-E278-4033-9CE2-F84FCD53291E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
     <author>tc={EBDD14CE-791A-4E31-A502-CD1EBC84196C}</author>
   </authors>
   <commentList>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{E0C20475-EFBA-4C8C-8CF4-B490E9206866}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{E0C20475-EFBA-4C8C-8CF4-B490E9206866}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -51,7 +51,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="P1" authorId="1" shapeId="0" xr:uid="{EBDD14CE-791A-4E31-A502-CD1EBC84196C}">
+    <comment ref="Q1" authorId="1" shapeId="0" xr:uid="{EBDD14CE-791A-4E31-A502-CD1EBC84196C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="74">
   <si>
     <t>Alabama</t>
   </si>
@@ -283,13 +283,16 @@
   </si>
   <si>
     <t>PoliticalLeaning</t>
+  </si>
+  <si>
+    <t>Law</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,12 +319,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -686,11 +683,11 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="K1" dT="2024-06-02T08:30:02.64" personId="{1401F3AB-4216-4CEE-809D-17293302B177}" id="{E0C20475-EFBA-4C8C-8CF4-B490E9206866}">
+  <threadedComment ref="L1" dT="2024-06-02T08:30:02.64" personId="{1401F3AB-4216-4CEE-809D-17293302B177}" id="{E0C20475-EFBA-4C8C-8CF4-B490E9206866}">
     <text xml:space="preserve">Per 10,000 resident population
 </text>
   </threadedComment>
-  <threadedComment ref="P1" dT="2024-06-26T06:07:39.14" personId="{1401F3AB-4216-4CEE-809D-17293302B177}" id="{EBDD14CE-791A-4E31-A502-CD1EBC84196C}">
+  <threadedComment ref="Q1" dT="2024-06-26T06:07:39.14" personId="{1401F3AB-4216-4CEE-809D-17293302B177}" id="{EBDD14CE-791A-4E31-A502-CD1EBC84196C}">
     <text>Deaths per 100,000</text>
   </threadedComment>
 </ThreadedComments>
@@ -698,332 +695,348 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R52"/>
+  <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="17.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="8.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.1796875" style="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.7265625" style="2"/>
+    <col min="3" max="3" width="11" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="17.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="8.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="S1" s="10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="2">
         <v>0</v>
       </c>
       <c r="D2" s="5">
         <v>0</v>
       </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="5">
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
         <v>2019</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>201811</v>
       </c>
-      <c r="H2" s="2">
-        <v>2018</v>
-      </c>
       <c r="I2" s="2">
+        <v>2018</v>
+      </c>
+      <c r="J2" s="2">
         <v>2019</v>
       </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
       <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
         <v>21.5</v>
       </c>
-      <c r="L2" s="2">
+      <c r="M2" s="2">
         <v>23.7</v>
       </c>
-      <c r="M2" s="4">
+      <c r="N2" s="4">
         <v>4779736</v>
       </c>
-      <c r="N2" s="4">
+      <c r="O2" s="4">
         <v>5024356</v>
       </c>
-      <c r="O2" s="4">
+      <c r="P2" s="4">
         <v>5074296</v>
       </c>
-      <c r="P2" s="8">
+      <c r="Q2" s="8">
         <v>941.7</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="R2" s="6">
         <v>64.811111111111089</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="S2" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
       </c>
-      <c r="C3" s="5">
-        <v>2017</v>
+      <c r="C3" s="2">
+        <v>1</v>
       </c>
       <c r="D3" s="5">
-        <v>2018</v>
-      </c>
-      <c r="E3" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2018</v>
+      </c>
+      <c r="F3" s="2">
         <v>201707</v>
       </c>
-      <c r="F3" s="5">
+      <c r="G3" s="5">
         <v>2019</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>201811</v>
       </c>
-      <c r="H3" s="2">
-        <v>2017</v>
-      </c>
       <c r="I3" s="2">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="J3" s="2">
-        <v>0</v>
+        <v>2018</v>
       </c>
       <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
         <v>24.5</v>
       </c>
-      <c r="L3" s="2">
+      <c r="M3" s="2">
         <v>28.3</v>
       </c>
-      <c r="M3" s="4">
+      <c r="N3" s="4">
         <v>710231</v>
       </c>
-      <c r="N3" s="4">
+      <c r="O3" s="4">
         <v>733378</v>
       </c>
-      <c r="O3" s="4">
+      <c r="P3" s="4">
         <v>733583</v>
       </c>
-      <c r="P3" s="8">
+      <c r="Q3" s="8">
         <v>730.6</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="R3" s="6">
         <v>29.422222222222224</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="S3" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
       </c>
-      <c r="C4" s="5">
-        <v>2018</v>
+      <c r="C4" s="2">
+        <v>1</v>
       </c>
       <c r="D4" s="5">
         <v>2018</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="5">
+        <v>2018</v>
+      </c>
+      <c r="F4" s="2">
         <v>201804</v>
       </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="G4" s="5">
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <v>2018</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
         <v>2018</v>
       </c>
       <c r="J4" s="2">
-        <v>1</v>
+        <v>2018</v>
       </c>
       <c r="K4" s="2">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2">
         <v>22.6</v>
       </c>
-      <c r="L4" s="2">
+      <c r="M4" s="2">
         <v>26.5</v>
       </c>
-      <c r="M4" s="4">
+      <c r="N4" s="4">
         <v>6392017</v>
       </c>
-      <c r="N4" s="4">
+      <c r="O4" s="4">
         <v>7151507</v>
       </c>
-      <c r="O4" s="4">
+      <c r="P4" s="4">
         <v>7359197</v>
       </c>
-      <c r="P4" s="8">
+      <c r="Q4" s="8">
         <v>697.8</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="R4" s="6">
         <v>61.811111111111117</v>
       </c>
-      <c r="R4" s="10" t="s">
+      <c r="S4" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
       </c>
-      <c r="C5" s="5">
-        <v>2018</v>
+      <c r="C5" s="2">
+        <v>1</v>
       </c>
       <c r="D5" s="5">
+        <v>2018</v>
+      </c>
+      <c r="E5" s="5">
         <v>2019</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>201808</v>
       </c>
-      <c r="F5" s="5">
-        <v>2018</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="G5" s="5">
+        <v>2018</v>
+      </c>
+      <c r="H5" s="2">
         <v>201803</v>
       </c>
-      <c r="H5" s="2">
-        <v>2018</v>
-      </c>
       <c r="I5" s="2">
         <v>2018</v>
       </c>
       <c r="J5" s="2">
-        <v>1</v>
+        <v>2018</v>
       </c>
       <c r="K5" s="2">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2">
         <v>20.399999999999999</v>
       </c>
-      <c r="L5" s="2">
+      <c r="M5" s="2">
         <v>22.6</v>
       </c>
-      <c r="M5" s="4">
+      <c r="N5" s="4">
         <v>2915918</v>
       </c>
-      <c r="N5" s="4">
+      <c r="O5" s="4">
         <v>3011555</v>
       </c>
-      <c r="O5" s="4">
+      <c r="P5" s="4">
         <v>3045637</v>
       </c>
-      <c r="P5" s="8">
+      <c r="Q5" s="8">
         <v>908.7</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="R5" s="6">
         <v>61.755555555555553</v>
       </c>
-      <c r="R5" s="10" t="s">
+      <c r="S5" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="2">
         <v>0</v>
       </c>
       <c r="D6" s="5">
         <v>0</v>
       </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
         <v>0</v>
       </c>
       <c r="H6" s="2">
@@ -1036,330 +1049,348 @@
         <v>0</v>
       </c>
       <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
         <v>26.2</v>
       </c>
-      <c r="L6" s="2">
+      <c r="M6" s="2">
         <v>29.4</v>
       </c>
-      <c r="M6" s="4">
+      <c r="N6" s="4">
         <v>37253956</v>
       </c>
-      <c r="N6" s="4">
+      <c r="O6" s="4">
         <v>39538245</v>
       </c>
-      <c r="O6" s="4">
+      <c r="P6" s="4">
         <v>39029342</v>
       </c>
-      <c r="P6" s="8">
+      <c r="Q6" s="8">
         <v>632.9</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="R6" s="6">
         <v>59.877777777777773</v>
       </c>
-      <c r="R6" s="10" t="s">
+      <c r="S6" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
       </c>
-      <c r="C7" s="5">
-        <v>2018</v>
+      <c r="C7" s="2">
+        <v>1</v>
       </c>
       <c r="D7" s="5">
         <v>2018</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="5">
+        <v>2018</v>
+      </c>
+      <c r="F7" s="2">
         <v>201805</v>
       </c>
-      <c r="F7" s="5">
+      <c r="G7" s="5">
         <v>2015</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>201408</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>2014</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>2015</v>
       </c>
-      <c r="J7" s="2">
-        <v>1</v>
-      </c>
       <c r="K7" s="2">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2">
         <v>26.9</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>30.9</v>
       </c>
-      <c r="M7" s="4">
+      <c r="N7" s="4">
         <v>5029196</v>
       </c>
-      <c r="N7" s="4">
+      <c r="O7" s="4">
         <v>5773733</v>
       </c>
-      <c r="O7" s="4">
+      <c r="P7" s="4">
         <v>5839926</v>
       </c>
-      <c r="P7" s="8">
+      <c r="Q7" s="8">
         <v>680.4</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="R7" s="6">
         <v>46.888888888888886</v>
       </c>
-      <c r="R7" s="10" t="s">
+      <c r="S7" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
         <v>2016</v>
       </c>
-      <c r="D8" s="5">
-        <v>2017</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="E8" s="5">
+        <v>2017</v>
+      </c>
+      <c r="F8" s="2">
         <v>201607</v>
       </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
+      <c r="G8" s="5">
         <v>0</v>
       </c>
       <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
         <v>2016</v>
       </c>
-      <c r="I8" s="2">
-        <v>2017</v>
-      </c>
       <c r="J8" s="2">
-        <v>1</v>
+        <v>2017</v>
       </c>
       <c r="K8" s="2">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2">
         <v>36.6</v>
       </c>
-      <c r="L8" s="2">
+      <c r="M8" s="2">
         <v>38.9</v>
       </c>
-      <c r="M8" s="4">
+      <c r="N8" s="4">
         <v>3574097</v>
       </c>
-      <c r="N8" s="4">
+      <c r="O8" s="4">
         <v>3605942</v>
       </c>
-      <c r="O8" s="4">
+      <c r="P8" s="4">
         <v>3626205</v>
       </c>
-      <c r="P8" s="8">
+      <c r="Q8" s="8">
         <v>672</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="R8" s="6">
         <v>51.055555555555557</v>
       </c>
-      <c r="R8" s="10" t="s">
+      <c r="S8" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
       </c>
-      <c r="C9" s="5">
-        <v>2017</v>
+      <c r="C9" s="2">
+        <v>1</v>
       </c>
       <c r="D9" s="5">
         <v>2017</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="5">
+        <v>2017</v>
+      </c>
+      <c r="F9" s="2">
         <v>201704</v>
       </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="G9" s="5">
         <v>0</v>
       </c>
       <c r="H9" s="2">
-        <v>2017</v>
+        <v>0</v>
       </c>
       <c r="I9" s="2">
         <v>2017</v>
       </c>
       <c r="J9" s="2">
-        <v>1</v>
+        <v>2017</v>
       </c>
       <c r="K9" s="2">
+        <v>1</v>
+      </c>
+      <c r="L9" s="2">
         <v>26.3</v>
       </c>
-      <c r="L9" s="2">
+      <c r="M9" s="2">
         <v>27.9</v>
       </c>
-      <c r="M9" s="4">
+      <c r="N9" s="4">
         <v>897934</v>
       </c>
-      <c r="N9" s="4">
+      <c r="O9" s="4">
         <v>989957</v>
       </c>
-      <c r="O9" s="4">
+      <c r="P9" s="4">
         <v>1018396</v>
       </c>
-      <c r="P9" s="8">
+      <c r="Q9" s="8">
         <v>764.1</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="R9" s="6">
         <v>57.311111111111103</v>
       </c>
-      <c r="R9" s="10" t="s">
+      <c r="S9" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="13" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="2">
         <v>0</v>
       </c>
       <c r="D10" s="5">
         <v>0</v>
       </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
         <v>2019</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="2">
         <v>201810</v>
       </c>
-      <c r="H10" s="2">
-        <v>2018</v>
-      </c>
       <c r="I10" s="2">
+        <v>2018</v>
+      </c>
+      <c r="J10" s="2">
         <v>2019</v>
       </c>
-      <c r="J10" s="2">
-        <v>0</v>
-      </c>
       <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
         <v>74.099999999999994</v>
       </c>
-      <c r="L10" s="2">
+      <c r="M10" s="2">
         <v>72.8</v>
       </c>
-      <c r="M10" s="4">
+      <c r="N10" s="4">
         <v>601723</v>
       </c>
-      <c r="N10" s="4">
+      <c r="O10" s="4">
         <v>689546</v>
       </c>
-      <c r="O10" s="4">
+      <c r="P10" s="4">
         <v>671803</v>
       </c>
-      <c r="P10" s="8">
+      <c r="Q10" s="8">
         <v>749.3</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="R10" s="7">
         <v>60.37</v>
       </c>
-      <c r="R10" s="10" t="s">
+      <c r="S10" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="13" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
       </c>
-      <c r="C11" s="5">
-        <v>2018</v>
+      <c r="C11" s="2">
+        <v>1</v>
       </c>
       <c r="D11" s="5">
+        <v>2018</v>
+      </c>
+      <c r="E11" s="5">
         <v>2019</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
         <v>201807</v>
       </c>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
+      <c r="G11" s="5">
         <v>0</v>
       </c>
       <c r="H11" s="2">
-        <v>2018</v>
+        <v>0</v>
       </c>
       <c r="I11" s="2">
+        <v>2018</v>
+      </c>
+      <c r="J11" s="2">
         <v>2019</v>
       </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
       <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
         <v>26</v>
       </c>
-      <c r="L11" s="2">
+      <c r="M11" s="2">
         <v>28.6</v>
       </c>
-      <c r="M11" s="4">
+      <c r="N11" s="4">
         <v>18801310</v>
       </c>
-      <c r="N11" s="4">
+      <c r="O11" s="4">
         <v>21538226</v>
       </c>
-      <c r="O11" s="4">
+      <c r="P11" s="4">
         <v>22244823</v>
       </c>
-      <c r="P11" s="8">
+      <c r="Q11" s="8">
         <v>675.3</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="R11" s="6">
         <v>72.811111111111103</v>
       </c>
-      <c r="R11" s="10" t="s">
+      <c r="S11" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="13" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="2">
         <v>0</v>
       </c>
       <c r="D12" s="5">
         <v>0</v>
       </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
         <v>0</v>
       </c>
       <c r="H12" s="2">
@@ -1369,109 +1400,115 @@
         <v>0</v>
       </c>
       <c r="J12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="2">
+        <v>1</v>
+      </c>
+      <c r="L12" s="2">
         <v>21.3</v>
       </c>
-      <c r="L12" s="2">
+      <c r="M12" s="2">
         <v>24.4</v>
       </c>
-      <c r="M12" s="4">
+      <c r="N12" s="4">
         <v>9687653</v>
       </c>
-      <c r="N12" s="4">
+      <c r="O12" s="4">
         <v>10711937</v>
       </c>
-      <c r="O12" s="4">
+      <c r="P12" s="4">
         <v>10912876</v>
       </c>
-      <c r="P12" s="8">
+      <c r="Q12" s="8">
         <v>814.7</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="R12" s="6">
         <v>65.422222222222217</v>
       </c>
-      <c r="R12" s="10" t="s">
+      <c r="S12" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="13" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
         <v>2016</v>
       </c>
-      <c r="D13" s="5">
-        <v>2017</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="E13" s="5">
+        <v>2017</v>
+      </c>
+      <c r="F13" s="2">
         <v>201607</v>
       </c>
-      <c r="F13" s="5">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2">
+      <c r="G13" s="5">
         <v>0</v>
       </c>
       <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
         <v>2016</v>
       </c>
-      <c r="I13" s="2">
-        <v>2017</v>
-      </c>
       <c r="J13" s="2">
-        <v>0</v>
+        <v>2017</v>
       </c>
       <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
         <v>31.7</v>
       </c>
-      <c r="L13" s="2">
+      <c r="M13" s="2">
         <v>32.6</v>
       </c>
-      <c r="M13" s="4">
+      <c r="N13" s="4">
         <v>1360301</v>
       </c>
-      <c r="N13" s="4">
+      <c r="O13" s="4">
         <v>1455273</v>
       </c>
-      <c r="O13" s="4">
+      <c r="P13" s="4">
         <v>1440196</v>
       </c>
-      <c r="P13" s="8">
+      <c r="Q13" s="8">
         <v>573.9</v>
       </c>
-      <c r="Q13" s="7">
+      <c r="R13" s="7">
         <v>81.08</v>
       </c>
-      <c r="R13" s="10" t="s">
+      <c r="S13" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="2">
         <v>0</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="2">
         <v>0</v>
       </c>
       <c r="D14" s="5">
         <v>0</v>
       </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="5">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
         <v>0</v>
       </c>
       <c r="H14" s="2">
@@ -1484,50 +1521,53 @@
         <v>0</v>
       </c>
       <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
         <v>18.3</v>
       </c>
-      <c r="L14" s="2">
+      <c r="M14" s="2">
         <v>19.8</v>
       </c>
-      <c r="M14" s="4">
+      <c r="N14" s="4">
         <v>1567582</v>
       </c>
-      <c r="N14" s="4">
+      <c r="O14" s="4">
         <v>1839092</v>
       </c>
-      <c r="O14" s="4">
+      <c r="P14" s="4">
         <v>1939033</v>
       </c>
-      <c r="P14" s="8">
+      <c r="Q14" s="8">
         <v>744.1</v>
       </c>
-      <c r="Q14" s="6">
+      <c r="R14" s="6">
         <v>44.488888888888887</v>
       </c>
-      <c r="R14" s="10" t="s">
+      <c r="S14" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="2">
         <v>0</v>
       </c>
       <c r="D15" s="5">
         <v>0</v>
       </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="5">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
         <v>0</v>
       </c>
       <c r="H15" s="2">
@@ -1540,162 +1580,171 @@
         <v>0</v>
       </c>
       <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
         <v>27.8</v>
       </c>
-      <c r="L15" s="2">
+      <c r="M15" s="2">
         <v>30.7</v>
       </c>
-      <c r="M15" s="4">
+      <c r="N15" s="4">
         <v>12830632</v>
       </c>
-      <c r="N15" s="4">
+      <c r="O15" s="4">
         <v>12812545</v>
       </c>
-      <c r="O15" s="4">
+      <c r="P15" s="4">
         <v>12582032</v>
       </c>
-      <c r="P15" s="8">
+      <c r="Q15" s="8">
         <v>743.8</v>
       </c>
-      <c r="Q15" s="6">
+      <c r="R15" s="6">
         <v>53.388888888888893</v>
       </c>
-      <c r="R15" s="10" t="s">
+      <c r="S15" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
       </c>
-      <c r="C16" s="5">
-        <v>2017</v>
+      <c r="C16" s="2">
+        <v>1</v>
       </c>
       <c r="D16" s="5">
-        <v>2018</v>
-      </c>
-      <c r="E16" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E16" s="5">
+        <v>2018</v>
+      </c>
+      <c r="F16" s="2">
         <v>201707</v>
       </c>
-      <c r="F16" s="5">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2">
+      <c r="G16" s="5">
         <v>0</v>
       </c>
       <c r="H16" s="2">
-        <v>2017</v>
+        <v>0</v>
       </c>
       <c r="I16" s="2">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="J16" s="2">
-        <v>1</v>
+        <v>2018</v>
       </c>
       <c r="K16" s="2">
+        <v>1</v>
+      </c>
+      <c r="L16" s="2">
         <v>22.3</v>
       </c>
-      <c r="L16" s="2">
+      <c r="M16" s="2">
         <v>23.9</v>
       </c>
-      <c r="M16" s="4">
+      <c r="N16" s="4">
         <v>6483802</v>
       </c>
-      <c r="N16" s="4">
+      <c r="O16" s="4">
         <v>6785668</v>
       </c>
-      <c r="O16" s="4">
+      <c r="P16" s="4">
         <v>6833037</v>
       </c>
-      <c r="P16" s="8">
+      <c r="Q16" s="8">
         <v>863.5</v>
       </c>
-      <c r="Q16" s="6">
+      <c r="R16" s="6">
         <v>53.211111111111109</v>
       </c>
-      <c r="R16" s="10" t="s">
+      <c r="S16" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="13" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="2">
         <v>0</v>
       </c>
       <c r="D17" s="5">
         <v>0</v>
       </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-      <c r="F17" s="5">
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
         <v>2019</v>
       </c>
-      <c r="G17" s="2">
+      <c r="H17" s="2">
         <v>201807</v>
       </c>
-      <c r="H17" s="2">
-        <v>2018</v>
-      </c>
       <c r="I17" s="2">
+        <v>2018</v>
+      </c>
+      <c r="J17" s="2">
         <v>2019</v>
       </c>
-      <c r="J17" s="2">
-        <v>0</v>
-      </c>
       <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
         <v>22.8</v>
       </c>
-      <c r="L17" s="2">
+      <c r="M17" s="2">
         <v>23.6</v>
       </c>
-      <c r="M17" s="4">
+      <c r="N17" s="4">
         <v>3046355</v>
       </c>
-      <c r="N17" s="4">
+      <c r="O17" s="4">
         <v>3190372</v>
       </c>
-      <c r="O17" s="4">
+      <c r="P17" s="4">
         <v>3200517</v>
       </c>
-      <c r="P17" s="8">
+      <c r="Q17" s="8">
         <v>752.3</v>
       </c>
-      <c r="Q17" s="6">
+      <c r="R17" s="6">
         <v>49.055555555555557</v>
       </c>
-      <c r="R17" s="10" t="s">
+      <c r="S17" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="13" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="2">
         <v>0</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="2">
         <v>0</v>
       </c>
       <c r="D18" s="5">
         <v>0</v>
       </c>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
-      <c r="F18" s="5">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2">
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
         <v>0</v>
       </c>
       <c r="H18" s="2">
@@ -1708,834 +1757,879 @@
         <v>0</v>
       </c>
       <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
         <v>24</v>
       </c>
-      <c r="L18" s="2">
+      <c r="M18" s="2">
         <v>26.9</v>
       </c>
-      <c r="M18" s="4">
+      <c r="N18" s="4">
         <v>2853118</v>
       </c>
-      <c r="N18" s="4">
+      <c r="O18" s="4">
         <v>2937847</v>
       </c>
-      <c r="O18" s="4">
+      <c r="P18" s="4">
         <v>2937150</v>
       </c>
-      <c r="P18" s="8">
+      <c r="Q18" s="8">
         <v>790.4</v>
       </c>
-      <c r="Q18" s="6">
+      <c r="R18" s="6">
         <v>55.733333333333334</v>
       </c>
-      <c r="R18" s="10" t="s">
+      <c r="S18" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="13" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="2">
         <v>1</v>
       </c>
-      <c r="C19" s="5">
-        <v>2017</v>
+      <c r="C19" s="2">
+        <v>1</v>
       </c>
       <c r="D19" s="5">
         <v>2017</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="5">
+        <v>2017</v>
+      </c>
+      <c r="F19" s="2">
         <v>201706</v>
       </c>
-      <c r="F19" s="5">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2">
+      <c r="G19" s="5">
         <v>0</v>
       </c>
       <c r="H19" s="2">
-        <v>2017</v>
+        <v>0</v>
       </c>
       <c r="I19" s="2">
         <v>2017</v>
       </c>
       <c r="J19" s="2">
-        <v>1</v>
+        <v>2017</v>
       </c>
       <c r="K19" s="2">
+        <v>1</v>
+      </c>
+      <c r="L19" s="2">
         <v>23.1</v>
       </c>
-      <c r="L19" s="2">
+      <c r="M19" s="2">
         <v>25.4</v>
       </c>
-      <c r="M19" s="4">
+      <c r="N19" s="4">
         <v>4339367</v>
       </c>
-      <c r="N19" s="4">
+      <c r="O19" s="4">
         <v>4505893</v>
       </c>
-      <c r="O19" s="4">
+      <c r="P19" s="4">
         <v>4512310</v>
       </c>
-      <c r="P19" s="8">
+      <c r="Q19" s="8">
         <v>947.2</v>
       </c>
-      <c r="Q19" s="6">
+      <c r="R19" s="6">
         <v>57.25555555555556</v>
       </c>
-      <c r="R19" s="10" t="s">
+      <c r="S19" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="13" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="2">
         <v>0</v>
       </c>
-      <c r="C20" s="5">
-        <v>2017</v>
+      <c r="C20" s="2">
+        <v>1</v>
       </c>
       <c r="D20" s="5">
-        <v>2018</v>
-      </c>
-      <c r="E20" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E20" s="5">
+        <v>2018</v>
+      </c>
+      <c r="F20" s="2">
         <v>201708</v>
       </c>
-      <c r="F20" s="5">
-        <v>2018</v>
-      </c>
-      <c r="G20" s="2">
+      <c r="G20" s="5">
+        <v>2018</v>
+      </c>
+      <c r="H20" s="2">
         <v>201707</v>
       </c>
-      <c r="H20" s="2">
-        <v>2017</v>
-      </c>
       <c r="I20" s="2">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="J20" s="2">
-        <v>1</v>
+        <v>2018</v>
       </c>
       <c r="K20" s="2">
+        <v>1</v>
+      </c>
+      <c r="L20" s="2">
         <v>25.3</v>
       </c>
-      <c r="L20" s="2">
+      <c r="M20" s="2">
         <v>29.2</v>
       </c>
-      <c r="M20" s="4">
+      <c r="N20" s="4">
         <v>4533372</v>
       </c>
-      <c r="N20" s="4">
+      <c r="O20" s="4">
         <v>4657749</v>
       </c>
-      <c r="O20" s="4">
+      <c r="P20" s="4">
         <v>4590241</v>
       </c>
-      <c r="P20" s="8">
+      <c r="Q20" s="8">
         <v>905.1</v>
       </c>
-      <c r="Q20" s="6">
+      <c r="R20" s="6">
         <v>68.177777777777777</v>
       </c>
-      <c r="R20" s="10" t="s">
+      <c r="S20" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="13" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="2">
         <v>0</v>
       </c>
-      <c r="C21" s="5">
-        <v>2017</v>
+      <c r="C21" s="2">
+        <v>1</v>
       </c>
       <c r="D21" s="5">
         <v>2017</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="5">
+        <v>2017</v>
+      </c>
+      <c r="F21" s="2">
         <v>201701</v>
       </c>
-      <c r="F21" s="5">
-        <v>2018</v>
-      </c>
-      <c r="G21" s="2">
+      <c r="G21" s="5">
+        <v>2018</v>
+      </c>
+      <c r="H21" s="2">
         <v>201709</v>
       </c>
-      <c r="H21" s="2">
-        <v>2017</v>
-      </c>
       <c r="I21" s="2">
         <v>2017</v>
       </c>
       <c r="J21" s="2">
-        <v>0</v>
+        <v>2017</v>
       </c>
       <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
         <v>31.5</v>
       </c>
-      <c r="L21" s="2">
+      <c r="M21" s="2">
         <v>34.5</v>
       </c>
-      <c r="M21" s="4">
+      <c r="N21" s="4">
         <v>1328361</v>
       </c>
-      <c r="N21" s="4">
+      <c r="O21" s="4">
         <v>1362341</v>
       </c>
-      <c r="O21" s="4">
+      <c r="P21" s="4">
         <v>1385340</v>
       </c>
-      <c r="P21" s="8">
+      <c r="Q21" s="8">
         <v>764</v>
       </c>
-      <c r="Q21" s="6">
+      <c r="R21" s="6">
         <v>42.766666666666659</v>
       </c>
-      <c r="R21" s="10" t="s">
+      <c r="S21" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="13" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
       </c>
-      <c r="C22" s="5">
-        <v>2017</v>
+      <c r="C22" s="2">
+        <v>1</v>
       </c>
       <c r="D22" s="5">
         <v>2017</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="5">
+        <v>2017</v>
+      </c>
+      <c r="F22" s="2">
         <v>201705</v>
       </c>
-      <c r="F22" s="5">
+      <c r="G22" s="5">
         <v>2019</v>
       </c>
-      <c r="G22" s="2">
+      <c r="H22" s="2">
         <v>201807</v>
       </c>
-      <c r="H22" s="2">
-        <v>2017</v>
-      </c>
       <c r="I22" s="2">
         <v>2017</v>
       </c>
       <c r="J22" s="2">
-        <v>0</v>
+        <v>2017</v>
       </c>
       <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2">
         <v>39.9</v>
       </c>
-      <c r="L22" s="2">
+      <c r="M22" s="2">
         <v>41</v>
       </c>
-      <c r="M22" s="4">
+      <c r="N22" s="4">
         <v>5773552</v>
       </c>
-      <c r="N22" s="4">
+      <c r="O22" s="4">
         <v>6177213</v>
       </c>
-      <c r="O22" s="4">
+      <c r="P22" s="4">
         <v>6164660</v>
       </c>
-      <c r="P22" s="8">
+      <c r="Q22" s="8">
         <v>736.7</v>
       </c>
-      <c r="Q22" s="6">
+      <c r="R22" s="6">
         <v>56.466666666666669</v>
       </c>
-      <c r="R22" s="10" t="s">
+      <c r="S22" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="13" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="2">
         <v>1</v>
       </c>
-      <c r="C23" s="5">
-        <v>2016</v>
+      <c r="C23" s="2">
+        <v>1</v>
       </c>
       <c r="D23" s="5">
         <v>2016</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="5">
+        <v>2016</v>
+      </c>
+      <c r="F23" s="2">
         <v>201603</v>
       </c>
-      <c r="F23" s="5">
+      <c r="G23" s="5">
         <v>2016</v>
       </c>
-      <c r="G23" s="2">
+      <c r="H23" s="2">
         <v>201603</v>
-      </c>
-      <c r="H23" s="2">
-        <v>2016</v>
       </c>
       <c r="I23" s="2">
         <v>2016</v>
       </c>
       <c r="J23" s="2">
-        <v>1</v>
+        <v>2016</v>
       </c>
       <c r="K23" s="2">
+        <v>1</v>
+      </c>
+      <c r="L23" s="2">
         <v>43.3</v>
       </c>
-      <c r="L23" s="2">
+      <c r="M23" s="2">
         <v>47.9</v>
       </c>
-      <c r="M23" s="4">
+      <c r="N23" s="4">
         <v>6547629</v>
       </c>
-      <c r="N23" s="4">
+      <c r="O23" s="4">
         <v>7029949</v>
       </c>
-      <c r="O23" s="4">
+      <c r="P23" s="4">
         <v>6981974</v>
       </c>
-      <c r="P23" s="8">
+      <c r="Q23" s="8">
         <v>686.4</v>
       </c>
-      <c r="Q23" s="6">
+      <c r="R23" s="6">
         <v>49.966666666666669</v>
       </c>
-      <c r="R23" s="10" t="s">
+      <c r="S23" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="13" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="2">
         <v>0</v>
       </c>
-      <c r="C24" s="5">
-        <v>2018</v>
+      <c r="C24" s="2">
+        <v>1</v>
       </c>
       <c r="D24" s="5">
+        <v>2018</v>
+      </c>
+      <c r="E24" s="5">
         <v>2019</v>
       </c>
-      <c r="E24" s="2">
+      <c r="F24" s="2">
         <v>201807</v>
       </c>
-      <c r="F24" s="5">
-        <v>0</v>
-      </c>
-      <c r="G24" s="2">
+      <c r="G24" s="5">
         <v>0</v>
       </c>
       <c r="H24" s="2">
-        <v>2018</v>
+        <v>0</v>
       </c>
       <c r="I24" s="2">
+        <v>2018</v>
+      </c>
+      <c r="J24" s="2">
         <v>2019</v>
       </c>
-      <c r="J24" s="2">
-        <v>0</v>
-      </c>
       <c r="K24" s="2">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2">
         <v>28.8</v>
       </c>
-      <c r="L24" s="2">
+      <c r="M24" s="2">
         <v>33.299999999999997</v>
       </c>
-      <c r="M24" s="4">
+      <c r="N24" s="4">
         <v>9883640</v>
       </c>
-      <c r="N24" s="4">
+      <c r="O24" s="4">
         <v>10077325</v>
       </c>
-      <c r="O24" s="4">
+      <c r="P24" s="4">
         <v>10034113</v>
       </c>
-      <c r="P24" s="8">
+      <c r="Q24" s="8">
         <v>808.2</v>
       </c>
-      <c r="Q24" s="6">
+      <c r="R24" s="6">
         <v>46.022222222222219</v>
       </c>
-      <c r="R24" s="10" t="s">
+      <c r="S24" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="13" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B25" s="2">
         <v>0</v>
       </c>
-      <c r="C25" s="5">
-        <v>2017</v>
+      <c r="C25" s="2">
+        <v>1</v>
       </c>
       <c r="D25" s="5">
         <v>2017</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="5">
+        <v>2017</v>
+      </c>
+      <c r="F25" s="2">
         <v>201707</v>
       </c>
-      <c r="F25" s="5">
-        <v>0</v>
-      </c>
-      <c r="G25" s="2">
+      <c r="G25" s="5">
         <v>0</v>
       </c>
       <c r="H25" s="2">
-        <v>2017</v>
+        <v>0</v>
       </c>
       <c r="I25" s="2">
         <v>2017</v>
       </c>
       <c r="J25" s="2">
-        <v>1</v>
+        <v>2017</v>
       </c>
       <c r="K25" s="2">
+        <v>1</v>
+      </c>
+      <c r="L25" s="2">
         <v>28.9</v>
       </c>
-      <c r="L25" s="2">
+      <c r="M25" s="2">
         <v>32.5</v>
       </c>
-      <c r="M25" s="4">
+      <c r="N25" s="4">
         <v>5303925</v>
       </c>
-      <c r="N25" s="4">
+      <c r="O25" s="4">
         <v>5706504</v>
       </c>
-      <c r="O25" s="4">
+      <c r="P25" s="4">
         <v>5717184</v>
       </c>
-      <c r="P25" s="8">
+      <c r="Q25" s="8">
         <v>669.8</v>
       </c>
-      <c r="Q25" s="6">
+      <c r="R25" s="6">
         <v>42.344444444444441</v>
       </c>
-      <c r="R25" s="10" t="s">
+      <c r="S25" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="13" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="5">
-        <v>2018</v>
+      <c r="C26" s="2">
+        <v>1</v>
       </c>
       <c r="D26" s="5">
+        <v>2018</v>
+      </c>
+      <c r="E26" s="5">
         <v>2019</v>
       </c>
-      <c r="E26" s="2">
+      <c r="F26" s="2">
         <v>201810</v>
       </c>
-      <c r="F26" s="5">
+      <c r="G26" s="5">
         <v>2020</v>
       </c>
-      <c r="G26" s="2">
+      <c r="H26" s="2">
         <v>201908</v>
       </c>
-      <c r="H26" s="2">
-        <v>2018</v>
-      </c>
       <c r="I26" s="2">
+        <v>2018</v>
+      </c>
+      <c r="J26" s="2">
         <v>2019</v>
       </c>
-      <c r="J26" s="2">
-        <v>1</v>
-      </c>
       <c r="K26" s="2">
+        <v>1</v>
+      </c>
+      <c r="L26" s="2">
         <v>18.2</v>
       </c>
-      <c r="L26" s="2">
+      <c r="M26" s="2">
         <v>20.6</v>
       </c>
-      <c r="M26" s="4">
+      <c r="N26" s="4">
         <v>2967297</v>
       </c>
-      <c r="N26" s="4">
+      <c r="O26" s="4">
         <v>2961288</v>
       </c>
-      <c r="O26" s="4">
+      <c r="P26" s="4">
         <v>2940057</v>
       </c>
-      <c r="P26" s="8">
+      <c r="Q26" s="8">
         <v>985.6</v>
       </c>
-      <c r="Q26" s="6">
+      <c r="R26" s="6">
         <v>65.400000000000006</v>
       </c>
-      <c r="R26" s="10" t="s">
+      <c r="S26" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="13" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B27" s="2">
         <v>1</v>
       </c>
-      <c r="C27" s="5">
-        <v>2018</v>
+      <c r="C27" s="2">
+        <v>1</v>
       </c>
       <c r="D27" s="5">
+        <v>2018</v>
+      </c>
+      <c r="E27" s="5">
         <v>2019</v>
       </c>
-      <c r="E27" s="2">
+      <c r="F27" s="2">
         <v>201808</v>
       </c>
-      <c r="F27" s="5">
-        <v>0</v>
-      </c>
-      <c r="G27" s="2">
+      <c r="G27" s="5">
         <v>0</v>
       </c>
       <c r="H27" s="2">
-        <v>2018</v>
+        <v>0</v>
       </c>
       <c r="I27" s="2">
+        <v>2018</v>
+      </c>
+      <c r="J27" s="2">
         <v>2019</v>
       </c>
-      <c r="J27" s="2">
-        <v>0</v>
-      </c>
       <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
         <v>26.1</v>
       </c>
-      <c r="L27" s="2">
+      <c r="M27" s="2">
         <v>29.8</v>
       </c>
-      <c r="M27" s="4">
+      <c r="N27" s="4">
         <v>5988927</v>
       </c>
-      <c r="N27" s="4">
+      <c r="O27" s="4">
         <v>6154920</v>
       </c>
-      <c r="O27" s="4">
+      <c r="P27" s="4">
         <v>6177957</v>
       </c>
-      <c r="P27" s="8">
+      <c r="Q27" s="8">
         <v>837.6</v>
       </c>
-      <c r="Q27" s="6">
+      <c r="R27" s="6">
         <v>56.12222222222222</v>
       </c>
-      <c r="R27" s="10" t="s">
+      <c r="S27" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="13" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5">
         <v>2019</v>
       </c>
-      <c r="D28" s="5">
+      <c r="E28" s="5">
         <v>2020</v>
       </c>
-      <c r="E28" s="2">
+      <c r="F28" s="2">
         <v>201910</v>
       </c>
-      <c r="F28" s="5">
-        <v>0</v>
-      </c>
-      <c r="G28" s="2">
+      <c r="G28" s="5">
         <v>0</v>
       </c>
       <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
         <v>2019</v>
       </c>
-      <c r="I28" s="2">
+      <c r="J28" s="2">
         <v>2020</v>
       </c>
-      <c r="J28" s="2">
-        <v>0</v>
-      </c>
       <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2">
         <v>22.9</v>
       </c>
-      <c r="L28" s="2">
+      <c r="M28" s="2">
         <v>26.2</v>
       </c>
-      <c r="M28" s="4">
+      <c r="N28" s="4">
         <v>989415</v>
       </c>
-      <c r="N28" s="4">
+      <c r="O28" s="4">
         <v>1084197</v>
       </c>
-      <c r="O28" s="4">
+      <c r="P28" s="4">
         <v>1122867</v>
       </c>
-      <c r="P28" s="8">
+      <c r="Q28" s="8">
         <v>763.1</v>
       </c>
-      <c r="Q28" s="6">
+      <c r="R28" s="6">
         <v>43.022222222222219</v>
       </c>
-      <c r="R28" s="10" t="s">
+      <c r="S28" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="13" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B29" s="2">
         <v>0</v>
       </c>
-      <c r="C29" s="5">
-        <v>2018</v>
+      <c r="C29" s="2">
+        <v>1</v>
       </c>
       <c r="D29" s="5">
+        <v>2018</v>
+      </c>
+      <c r="E29" s="5">
         <v>2019</v>
       </c>
-      <c r="E29" s="2">
+      <c r="F29" s="2">
         <v>201807</v>
       </c>
-      <c r="F29" s="5">
-        <v>2017</v>
-      </c>
-      <c r="G29" s="2">
+      <c r="G29" s="5">
+        <v>2017</v>
+      </c>
+      <c r="H29" s="2">
         <v>201610</v>
       </c>
-      <c r="H29" s="2">
+      <c r="I29" s="2">
         <v>2016</v>
       </c>
-      <c r="I29" s="2">
-        <v>2017</v>
-      </c>
       <c r="J29" s="2">
-        <v>0</v>
+        <v>2017</v>
       </c>
       <c r="K29" s="2">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2">
         <v>25</v>
       </c>
-      <c r="L29" s="2">
+      <c r="M29" s="2">
         <v>27.2</v>
       </c>
-      <c r="M29" s="4">
+      <c r="N29" s="4">
         <v>1826341</v>
       </c>
-      <c r="N29" s="4">
+      <c r="O29" s="4">
         <v>1961489</v>
       </c>
-      <c r="O29" s="4">
+      <c r="P29" s="4">
         <v>1967923</v>
       </c>
-      <c r="P29" s="8">
+      <c r="Q29" s="8">
         <v>737.7</v>
       </c>
-      <c r="Q29" s="6">
+      <c r="R29" s="6">
         <v>50.077777777777776</v>
       </c>
-      <c r="R29" s="10" t="s">
+      <c r="S29" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="13" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B30" s="2">
         <v>0</v>
       </c>
-      <c r="C30" s="5">
-        <v>2018</v>
+      <c r="C30" s="2">
+        <v>1</v>
       </c>
       <c r="D30" s="5">
         <v>2018</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="5">
+        <v>2018</v>
+      </c>
+      <c r="F30" s="2">
         <v>201801</v>
       </c>
-      <c r="F30" s="5">
-        <v>2017</v>
-      </c>
-      <c r="G30" s="2">
+      <c r="G30" s="5">
+        <v>2017</v>
+      </c>
+      <c r="H30" s="2">
         <v>201705</v>
       </c>
-      <c r="H30" s="2">
-        <v>2017</v>
-      </c>
       <c r="I30" s="2">
         <v>2017</v>
       </c>
       <c r="J30" s="2">
-        <v>1</v>
+        <v>2017</v>
       </c>
       <c r="K30" s="2">
+        <v>1</v>
+      </c>
+      <c r="L30" s="2">
         <v>19.8</v>
       </c>
-      <c r="L30" s="2">
+      <c r="M30" s="2">
         <v>21.8</v>
       </c>
-      <c r="M30" s="4">
+      <c r="N30" s="4">
         <v>2700551</v>
       </c>
-      <c r="N30" s="4">
+      <c r="O30" s="4">
         <v>3104624</v>
       </c>
-      <c r="O30" s="4">
+      <c r="P30" s="4">
         <v>3177772</v>
       </c>
-      <c r="P30" s="8">
+      <c r="Q30" s="8">
         <v>777.7</v>
       </c>
-      <c r="Q30" s="6">
+      <c r="R30" s="6">
         <v>51.711111111111109</v>
       </c>
-      <c r="R30" s="10" t="s">
+      <c r="S30" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="13" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B31" s="2">
         <v>0</v>
       </c>
-      <c r="C31" s="5">
-        <v>2017</v>
+      <c r="C31" s="2">
+        <v>1</v>
       </c>
       <c r="D31" s="5">
         <v>2017</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="5">
+        <v>2017</v>
+      </c>
+      <c r="F31" s="2">
         <v>201701</v>
       </c>
-      <c r="F31" s="5">
+      <c r="G31" s="5">
         <v>2016</v>
       </c>
-      <c r="G31" s="2">
+      <c r="H31" s="2">
         <v>201606</v>
-      </c>
-      <c r="H31" s="2">
-        <v>2016</v>
       </c>
       <c r="I31" s="2">
         <v>2016</v>
       </c>
       <c r="J31" s="2">
-        <v>1</v>
+        <v>2016</v>
       </c>
       <c r="K31" s="2">
+        <v>1</v>
+      </c>
+      <c r="L31" s="2">
         <v>29.2</v>
       </c>
-      <c r="L31" s="2">
+      <c r="M31" s="2">
         <v>33.200000000000003</v>
       </c>
-      <c r="M31" s="4">
+      <c r="N31" s="4">
         <v>1316470</v>
       </c>
-      <c r="N31" s="4">
+      <c r="O31" s="4">
         <v>1377518</v>
       </c>
-      <c r="O31" s="4">
+      <c r="P31" s="4">
         <v>1395231</v>
       </c>
-      <c r="P31" s="8">
+      <c r="Q31" s="8">
         <v>719.1</v>
       </c>
-      <c r="Q31" s="6">
+      <c r="R31" s="6">
         <v>45.12222222222222</v>
       </c>
-      <c r="R31" s="10" t="s">
+      <c r="S31" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="13" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B32" s="2">
         <v>0</v>
       </c>
-      <c r="C32" s="5">
-        <v>2017</v>
+      <c r="C32" s="2">
+        <v>1</v>
       </c>
       <c r="D32" s="5">
         <v>2017</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="5">
+        <v>2017</v>
+      </c>
+      <c r="F32" s="2">
         <v>201705</v>
       </c>
-      <c r="F32" s="5">
-        <v>0</v>
-      </c>
-      <c r="G32" s="2">
+      <c r="G32" s="5">
         <v>0</v>
       </c>
       <c r="H32" s="2">
-        <v>2017</v>
+        <v>0</v>
       </c>
       <c r="I32" s="2">
         <v>2017</v>
       </c>
       <c r="J32" s="2">
-        <v>1</v>
+        <v>2017</v>
       </c>
       <c r="K32" s="2">
+        <v>1</v>
+      </c>
+      <c r="L32" s="2">
         <v>32.5</v>
       </c>
-      <c r="L32" s="2">
+      <c r="M32" s="2">
         <v>34.6</v>
       </c>
-      <c r="M32" s="4">
+      <c r="N32" s="4">
         <v>8791894</v>
       </c>
-      <c r="N32" s="4">
+      <c r="O32" s="4">
         <v>9289031</v>
       </c>
-      <c r="O32" s="4">
+      <c r="P32" s="4">
         <v>9261699</v>
       </c>
-      <c r="P32" s="8">
+      <c r="Q32" s="8">
         <v>700.3</v>
       </c>
-      <c r="Q32" s="6">
+      <c r="R32" s="6">
         <v>54.722222222222229</v>
       </c>
-      <c r="R32" s="10" t="s">
+      <c r="S32" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="13" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B33" s="2">
         <v>0</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="2">
         <v>0</v>
       </c>
       <c r="D33" s="5">
         <v>0</v>
       </c>
-      <c r="E33" s="2">
-        <v>0</v>
-      </c>
-      <c r="F33" s="5">
-        <v>0</v>
-      </c>
-      <c r="G33" s="2">
+      <c r="E33" s="5">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
+      <c r="G33" s="5">
         <v>0</v>
       </c>
       <c r="H33" s="2">
@@ -2545,165 +2639,174 @@
         <v>0</v>
       </c>
       <c r="J33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" s="2">
+        <v>1</v>
+      </c>
+      <c r="L33" s="2">
         <v>24.1</v>
       </c>
-      <c r="L33" s="2">
+      <c r="M33" s="2">
         <v>25.9</v>
       </c>
-      <c r="M33" s="4">
+      <c r="N33" s="4">
         <v>2059179</v>
       </c>
-      <c r="N33" s="4">
+      <c r="O33" s="4">
         <v>2117527</v>
       </c>
-      <c r="O33" s="4">
+      <c r="P33" s="4">
         <v>2113344</v>
       </c>
-      <c r="P33" s="8">
+      <c r="Q33" s="8">
         <v>788.6</v>
       </c>
-      <c r="Q33" s="6">
+      <c r="R33" s="6">
         <v>55.355555555555554</v>
       </c>
-      <c r="R33" s="10" t="s">
+      <c r="S33" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="13" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B34" s="2">
         <v>0</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="5">
         <v>2016</v>
       </c>
-      <c r="D34" s="5">
-        <v>2017</v>
-      </c>
-      <c r="E34" s="2">
+      <c r="E34" s="5">
+        <v>2017</v>
+      </c>
+      <c r="F34" s="2">
         <v>201607</v>
       </c>
-      <c r="F34" s="5">
-        <v>0</v>
-      </c>
-      <c r="G34" s="2">
+      <c r="G34" s="5">
         <v>0</v>
       </c>
       <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2">
         <v>2016</v>
       </c>
-      <c r="I34" s="2">
-        <v>2017</v>
-      </c>
       <c r="J34" s="2">
-        <v>1</v>
+        <v>2017</v>
       </c>
       <c r="K34" s="2">
+        <v>1</v>
+      </c>
+      <c r="L34" s="2">
         <v>37.299999999999997</v>
       </c>
-      <c r="L34" s="2">
+      <c r="M34" s="2">
         <v>39.9</v>
       </c>
-      <c r="M34" s="4">
+      <c r="N34" s="4">
         <v>19378102</v>
       </c>
-      <c r="N34" s="4">
+      <c r="O34" s="4">
         <v>20201230</v>
       </c>
-      <c r="O34" s="4">
+      <c r="P34" s="4">
         <v>19677151</v>
       </c>
-      <c r="P34" s="8">
+      <c r="Q34" s="8">
         <v>659.1</v>
       </c>
-      <c r="Q34" s="6">
+      <c r="R34" s="6">
         <v>46.888888888888886</v>
       </c>
-      <c r="R34" s="10" t="s">
+      <c r="S34" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="13" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B35" s="2">
         <v>0</v>
       </c>
-      <c r="C35" s="5">
-        <v>2018</v>
+      <c r="C35" s="2">
+        <v>1</v>
       </c>
       <c r="D35" s="5">
         <v>2018</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="5">
+        <v>2018</v>
+      </c>
+      <c r="F35" s="2">
         <v>201801</v>
       </c>
-      <c r="F35" s="5">
-        <v>2018</v>
-      </c>
-      <c r="G35" s="2">
+      <c r="G35" s="5">
+        <v>2018</v>
+      </c>
+      <c r="H35" s="2">
         <v>201708</v>
       </c>
-      <c r="H35" s="2">
-        <v>2017</v>
-      </c>
       <c r="I35" s="2">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="J35" s="2">
-        <v>1</v>
+        <v>2018</v>
       </c>
       <c r="K35" s="2">
+        <v>1</v>
+      </c>
+      <c r="L35" s="2">
         <v>25</v>
       </c>
-      <c r="L35" s="2">
+      <c r="M35" s="2">
         <v>27.5</v>
       </c>
-      <c r="M35" s="4">
+      <c r="N35" s="4">
         <v>9535483</v>
       </c>
-      <c r="N35" s="4">
+      <c r="O35" s="4">
         <v>10439414</v>
       </c>
-      <c r="O35" s="4">
+      <c r="P35" s="4">
         <v>10698973</v>
       </c>
-      <c r="P35" s="8">
+      <c r="Q35" s="8">
         <v>793.8</v>
       </c>
-      <c r="Q35" s="6">
+      <c r="R35" s="6">
         <v>60.622222222222227</v>
       </c>
-      <c r="R35" s="10" t="s">
+      <c r="S35" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="13" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B36" s="2">
         <v>0</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="2">
         <v>0</v>
       </c>
       <c r="D36" s="5">
         <v>0</v>
       </c>
-      <c r="E36" s="2">
-        <v>0</v>
-      </c>
-      <c r="F36" s="5">
-        <v>0</v>
-      </c>
-      <c r="G36" s="2">
+      <c r="E36" s="5">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0</v>
+      </c>
+      <c r="G36" s="5">
         <v>0</v>
       </c>
       <c r="H36" s="2">
@@ -2713,926 +2816,977 @@
         <v>0</v>
       </c>
       <c r="J36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="2">
+        <v>1</v>
+      </c>
+      <c r="L36" s="2">
         <v>25.1</v>
       </c>
-      <c r="L36" s="2">
+      <c r="M36" s="2">
         <v>25.5</v>
       </c>
-      <c r="M36" s="4">
+      <c r="N36" s="4">
         <v>672591</v>
       </c>
-      <c r="N36" s="4">
+      <c r="O36" s="4">
         <v>779091</v>
       </c>
-      <c r="O36" s="4">
+      <c r="P36" s="4">
         <v>779261</v>
       </c>
-      <c r="P36" s="8">
+      <c r="Q36" s="8">
         <v>723.6</v>
       </c>
-      <c r="Q36" s="6">
+      <c r="R36" s="6">
         <v>41.677777777777777</v>
       </c>
-      <c r="R36" s="10" t="s">
+      <c r="S36" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="13" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B37" s="2">
         <v>0</v>
       </c>
-      <c r="C37" s="5">
-        <v>2017</v>
+      <c r="C37" s="2">
+        <v>1</v>
       </c>
       <c r="D37" s="5">
-        <v>2018</v>
-      </c>
-      <c r="E37" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E37" s="5">
+        <v>2018</v>
+      </c>
+      <c r="F37" s="2">
         <v>201708</v>
       </c>
-      <c r="F37" s="5">
-        <v>0</v>
-      </c>
-      <c r="G37" s="2">
+      <c r="G37" s="5">
         <v>0</v>
       </c>
       <c r="H37" s="2">
-        <v>2017</v>
+        <v>0</v>
       </c>
       <c r="I37" s="2">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="J37" s="2">
-        <v>1</v>
+        <v>2018</v>
       </c>
       <c r="K37" s="2">
+        <v>1</v>
+      </c>
+      <c r="L37" s="2">
         <v>28.3</v>
       </c>
-      <c r="L37" s="2">
+      <c r="M37" s="2">
         <v>31.9</v>
       </c>
-      <c r="M37" s="4">
+      <c r="N37" s="4">
         <v>11536504</v>
       </c>
-      <c r="N37" s="4">
+      <c r="O37" s="4">
         <v>11799374</v>
       </c>
-      <c r="O37" s="4">
+      <c r="P37" s="4">
         <v>11756058</v>
       </c>
-      <c r="P37" s="8">
+      <c r="Q37" s="8">
         <v>860.7</v>
       </c>
-      <c r="Q37" s="6">
+      <c r="R37" s="6">
         <v>52.711111111111109</v>
       </c>
-      <c r="R37" s="10" t="s">
+      <c r="S37" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="13" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B38" s="2">
         <v>0</v>
       </c>
-      <c r="C38" s="5">
-        <v>2018</v>
+      <c r="C38" s="2">
+        <v>1</v>
       </c>
       <c r="D38" s="5">
+        <v>2018</v>
+      </c>
+      <c r="E38" s="5">
         <v>2019</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>201811</v>
       </c>
-      <c r="F38" s="5">
-        <v>0</v>
-      </c>
-      <c r="G38" s="2">
+      <c r="G38" s="5">
         <v>0</v>
       </c>
       <c r="H38" s="2">
-        <v>2018</v>
+        <v>0</v>
       </c>
       <c r="I38" s="2">
+        <v>2018</v>
+      </c>
+      <c r="J38" s="2">
         <v>2019</v>
       </c>
-      <c r="J38" s="2">
-        <v>1</v>
-      </c>
       <c r="K38" s="2">
+        <v>1</v>
+      </c>
+      <c r="L38" s="2">
         <v>21</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>22.6</v>
       </c>
-      <c r="M38" s="4">
+      <c r="N38" s="4">
         <v>3751351</v>
       </c>
-      <c r="N38" s="4">
+      <c r="O38" s="4">
         <v>3959346</v>
       </c>
-      <c r="O38" s="4">
+      <c r="P38" s="4">
         <v>4019800</v>
       </c>
-      <c r="P38" s="8">
+      <c r="Q38" s="8">
         <v>915.9</v>
       </c>
-      <c r="Q38" s="6">
+      <c r="R38" s="6">
         <v>61.022222222222211</v>
       </c>
-      <c r="R38" s="10" t="s">
+      <c r="S38" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="13" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B39" s="2">
         <v>0</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="2">
         <v>0</v>
       </c>
       <c r="D39" s="5">
         <v>0</v>
       </c>
-      <c r="E39" s="2">
-        <v>0</v>
-      </c>
-      <c r="F39" s="5">
+      <c r="E39" s="5">
+        <v>0</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0</v>
+      </c>
+      <c r="G39" s="5">
         <v>2019</v>
       </c>
-      <c r="G39" s="2">
+      <c r="H39" s="2">
         <v>201906</v>
-      </c>
-      <c r="H39" s="2">
-        <v>2019</v>
       </c>
       <c r="I39" s="2">
         <v>2019</v>
       </c>
       <c r="J39" s="2">
-        <v>0</v>
+        <v>2019</v>
       </c>
       <c r="K39" s="2">
+        <v>0</v>
+      </c>
+      <c r="L39" s="2">
         <v>28</v>
       </c>
-      <c r="L39" s="2">
+      <c r="M39" s="2">
         <v>31.6</v>
       </c>
-      <c r="M39" s="4">
+      <c r="N39" s="4">
         <v>3831074</v>
       </c>
-      <c r="N39" s="4">
+      <c r="O39" s="4">
         <v>4237291</v>
       </c>
-      <c r="O39" s="4">
+      <c r="P39" s="4">
         <v>4240137</v>
       </c>
-      <c r="P39" s="8">
+      <c r="Q39" s="8">
         <v>713.9</v>
       </c>
-      <c r="Q39" s="6">
+      <c r="R39" s="6">
         <v>48.56666666666667</v>
       </c>
-      <c r="R39" s="10" t="s">
+      <c r="S39" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="13" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B40" s="2">
         <v>0</v>
       </c>
-      <c r="C40" s="5">
-        <v>2017</v>
+      <c r="C40" s="2">
+        <v>1</v>
       </c>
       <c r="D40" s="5">
         <v>2017</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="5">
+        <v>2017</v>
+      </c>
+      <c r="F40" s="2">
         <v>201701</v>
       </c>
-      <c r="F40" s="5">
-        <v>0</v>
-      </c>
-      <c r="G40" s="2">
+      <c r="G40" s="5">
         <v>0</v>
       </c>
       <c r="H40" s="2">
-        <v>2017</v>
+        <v>0</v>
       </c>
       <c r="I40" s="2">
         <v>2017</v>
       </c>
       <c r="J40" s="2">
-        <v>1</v>
+        <v>2017</v>
       </c>
       <c r="K40" s="2">
+        <v>1</v>
+      </c>
+      <c r="L40" s="2">
         <v>32.700000000000003</v>
       </c>
-      <c r="L40" s="2">
+      <c r="M40" s="2">
         <v>35.700000000000003</v>
       </c>
-      <c r="M40" s="4">
+      <c r="N40" s="4">
         <v>12702379</v>
       </c>
-      <c r="N40" s="4">
+      <c r="O40" s="4">
         <v>13002689</v>
       </c>
-      <c r="O40" s="4">
+      <c r="P40" s="4">
         <v>12972008</v>
       </c>
-      <c r="P40" s="8">
+      <c r="Q40" s="8">
         <v>783.3</v>
       </c>
-      <c r="Q40" s="6">
+      <c r="R40" s="6">
         <v>50.466666666666669</v>
       </c>
-      <c r="R40" s="10" t="s">
+      <c r="S40" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" ht="13" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B41" s="2">
         <v>0</v>
       </c>
-      <c r="C41" s="5">
-        <v>2017</v>
+      <c r="C41" s="2">
+        <v>1</v>
       </c>
       <c r="D41" s="5">
         <v>2017</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="5">
+        <v>2017</v>
+      </c>
+      <c r="F41" s="2">
         <v>201703</v>
       </c>
-      <c r="F41" s="5">
-        <v>0</v>
-      </c>
-      <c r="G41" s="2">
+      <c r="G41" s="5">
         <v>0</v>
       </c>
       <c r="H41" s="2">
-        <v>2017</v>
+        <v>0</v>
       </c>
       <c r="I41" s="2">
         <v>2017</v>
       </c>
       <c r="J41" s="2">
-        <v>1</v>
+        <v>2017</v>
       </c>
       <c r="K41" s="2">
+        <v>1</v>
+      </c>
+      <c r="L41" s="2">
         <v>37</v>
       </c>
-      <c r="L41" s="2">
+      <c r="M41" s="2">
         <v>42.9</v>
       </c>
-      <c r="M41" s="4">
+      <c r="N41" s="4">
         <v>1052567</v>
       </c>
-      <c r="N41" s="4">
+      <c r="O41" s="4">
         <v>1097371</v>
       </c>
-      <c r="O41" s="4">
+      <c r="P41" s="4">
         <v>1093734</v>
       </c>
-      <c r="P41" s="8">
+      <c r="Q41" s="8">
         <v>724.3</v>
       </c>
-      <c r="Q41" s="6">
+      <c r="R41" s="6">
         <v>51.833333333333343</v>
       </c>
-      <c r="R41" s="10" t="s">
+      <c r="S41" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" ht="13" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B42" s="2">
         <v>1</v>
       </c>
-      <c r="C42" s="5">
-        <v>2018</v>
+      <c r="C42" s="2">
+        <v>1</v>
       </c>
       <c r="D42" s="5">
         <v>2018</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="5">
+        <v>2018</v>
+      </c>
+      <c r="F42" s="2">
         <v>201805</v>
       </c>
-      <c r="F42" s="5">
-        <v>2018</v>
-      </c>
-      <c r="G42" s="2">
+      <c r="G42" s="5">
+        <v>2018</v>
+      </c>
+      <c r="H42" s="2">
         <v>201805</v>
       </c>
-      <c r="H42" s="2">
-        <v>2018</v>
-      </c>
       <c r="I42" s="2">
         <v>2018</v>
       </c>
       <c r="J42" s="2">
-        <v>0</v>
+        <v>2018</v>
       </c>
       <c r="K42" s="2">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2">
         <v>22.8</v>
       </c>
-      <c r="L42" s="2">
+      <c r="M42" s="2">
         <v>24.7</v>
       </c>
-      <c r="M42" s="4">
+      <c r="N42" s="4">
         <v>4625364</v>
       </c>
-      <c r="N42" s="4">
+      <c r="O42" s="4">
         <v>5118429</v>
       </c>
-      <c r="O42" s="4">
+      <c r="P42" s="4">
         <v>5282634</v>
       </c>
-      <c r="P42" s="8">
+      <c r="Q42" s="8">
         <v>846.1</v>
       </c>
-      <c r="Q42" s="6">
+      <c r="R42" s="6">
         <v>64.455555555555563</v>
       </c>
-      <c r="R42" s="10" t="s">
+      <c r="S42" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" ht="13" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B43" s="2">
         <v>0</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="2">
         <v>0</v>
       </c>
       <c r="D43" s="5">
         <v>0</v>
       </c>
-      <c r="E43" s="2">
-        <v>0</v>
-      </c>
-      <c r="F43" s="5">
+      <c r="E43" s="5">
+        <v>0</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0</v>
+      </c>
+      <c r="G43" s="5">
         <v>2020</v>
       </c>
-      <c r="G43" s="2">
+      <c r="H43" s="2">
         <v>201910</v>
       </c>
-      <c r="H43" s="2">
+      <c r="I43" s="2">
         <v>2019</v>
       </c>
-      <c r="I43" s="2">
+      <c r="J43" s="2">
         <v>2020</v>
       </c>
-      <c r="J43" s="2">
-        <v>0</v>
-      </c>
       <c r="K43" s="2">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2">
         <v>23.4</v>
       </c>
-      <c r="L43" s="2">
+      <c r="M43" s="2">
         <v>25.8</v>
       </c>
-      <c r="M43" s="4">
+      <c r="N43" s="4">
         <v>814180</v>
       </c>
-      <c r="N43" s="4">
+      <c r="O43" s="4">
         <v>886677</v>
       </c>
-      <c r="O43" s="4">
+      <c r="P43" s="4">
         <v>909824</v>
       </c>
-      <c r="P43" s="8">
+      <c r="Q43" s="8">
         <v>760.2</v>
       </c>
-      <c r="Q43" s="6">
+      <c r="R43" s="6">
         <v>46.199999999999996</v>
       </c>
-      <c r="R43" s="10" t="s">
+      <c r="S43" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" ht="13" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B44" s="2">
         <v>1</v>
       </c>
-      <c r="C44" s="5">
-        <v>2018</v>
+      <c r="C44" s="2">
+        <v>1</v>
       </c>
       <c r="D44" s="5">
+        <v>2018</v>
+      </c>
+      <c r="E44" s="5">
         <v>2019</v>
       </c>
-      <c r="E44" s="2">
+      <c r="F44" s="2">
         <v>201807</v>
       </c>
-      <c r="F44" s="5">
+      <c r="G44" s="5">
         <v>2019</v>
       </c>
-      <c r="G44" s="2">
+      <c r="H44" s="2">
         <v>201902</v>
       </c>
-      <c r="H44" s="2">
-        <v>2018</v>
-      </c>
       <c r="I44" s="2">
+        <v>2018</v>
+      </c>
+      <c r="J44" s="2">
         <v>2019</v>
       </c>
-      <c r="J44" s="2">
-        <v>1</v>
-      </c>
       <c r="K44" s="2">
+        <v>1</v>
+      </c>
+      <c r="L44" s="2">
         <v>26.2</v>
       </c>
-      <c r="L44" s="2">
+      <c r="M44" s="2">
         <v>27.7</v>
       </c>
-      <c r="M44" s="4">
+      <c r="N44" s="4">
         <v>6346105</v>
       </c>
-      <c r="N44" s="4">
+      <c r="O44" s="4">
         <v>6910786</v>
       </c>
-      <c r="O44" s="4">
+      <c r="P44" s="4">
         <v>7051339</v>
       </c>
-      <c r="P44" s="8">
+      <c r="Q44" s="8">
         <v>916.2</v>
       </c>
-      <c r="Q44" s="6">
+      <c r="R44" s="6">
         <v>59.43333333333333</v>
       </c>
-      <c r="R44" s="10" t="s">
+      <c r="S44" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" ht="13" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B45" s="2">
         <v>0</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="2">
+        <v>1</v>
+      </c>
+      <c r="D45" s="5">
         <v>2019</v>
       </c>
-      <c r="D45" s="5">
+      <c r="E45" s="5">
         <v>2020</v>
       </c>
-      <c r="E45" s="2">
+      <c r="F45" s="2">
         <v>201909</v>
       </c>
-      <c r="F45" s="5">
-        <v>2018</v>
-      </c>
-      <c r="G45" s="2">
+      <c r="G45" s="5">
+        <v>2018</v>
+      </c>
+      <c r="H45" s="2">
         <v>201801</v>
       </c>
-      <c r="H45" s="2">
-        <v>2018</v>
-      </c>
       <c r="I45" s="2">
         <v>2018</v>
       </c>
       <c r="J45" s="2">
-        <v>0</v>
+        <v>2018</v>
       </c>
       <c r="K45" s="2">
+        <v>0</v>
+      </c>
+      <c r="L45" s="2">
         <v>21.6</v>
       </c>
-      <c r="L45" s="2">
+      <c r="M45" s="2">
         <v>24.3</v>
       </c>
-      <c r="M45" s="4">
+      <c r="N45" s="4">
         <v>25145561</v>
       </c>
-      <c r="N45" s="4">
+      <c r="O45" s="4">
         <v>29145428</v>
       </c>
-      <c r="O45" s="4">
+      <c r="P45" s="4">
         <v>30029572</v>
       </c>
-      <c r="P45" s="8">
+      <c r="Q45" s="8">
         <v>761.9</v>
       </c>
-      <c r="Q45" s="6">
+      <c r="R45" s="6">
         <v>66.644444444444446</v>
       </c>
-      <c r="R45" s="10" t="s">
+      <c r="S45" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" ht="13" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B46" s="2">
         <v>0</v>
       </c>
-      <c r="C46" s="5">
-        <v>2017</v>
+      <c r="C46" s="2">
+        <v>1</v>
       </c>
       <c r="D46" s="5">
         <v>2017</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="5">
+        <v>2017</v>
+      </c>
+      <c r="F46" s="2">
         <v>201705</v>
       </c>
-      <c r="F46" s="5">
+      <c r="G46" s="5">
         <v>2020</v>
       </c>
-      <c r="G46" s="2">
+      <c r="H46" s="2">
         <v>201907</v>
       </c>
-      <c r="H46" s="2">
-        <v>2017</v>
-      </c>
       <c r="I46" s="2">
         <v>2017</v>
       </c>
       <c r="J46" s="2">
-        <v>0</v>
+        <v>2017</v>
       </c>
       <c r="K46" s="2">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2">
         <v>21</v>
       </c>
-      <c r="L46" s="2">
+      <c r="M46" s="2">
         <v>23.9</v>
       </c>
-      <c r="M46" s="4">
+      <c r="N46" s="4">
         <v>2763885</v>
       </c>
-      <c r="N46" s="4">
+      <c r="O46" s="4">
         <v>3271614</v>
       </c>
-      <c r="O46" s="4">
+      <c r="P46" s="4">
         <v>3380800</v>
       </c>
-      <c r="P46" s="8">
+      <c r="Q46" s="8">
         <v>717</v>
       </c>
-      <c r="Q46" s="6">
+      <c r="R46" s="6">
         <v>49.888888888888886</v>
       </c>
-      <c r="R46" s="10" t="s">
+      <c r="S46" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" ht="13" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B47" s="2">
         <v>0</v>
       </c>
-      <c r="C47" s="5">
-        <v>2017</v>
+      <c r="C47" s="2">
+        <v>1</v>
       </c>
       <c r="D47" s="5">
-        <v>2018</v>
-      </c>
-      <c r="E47" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E47" s="5">
+        <v>2018</v>
+      </c>
+      <c r="F47" s="2">
         <v>201707</v>
       </c>
-      <c r="F47" s="5">
-        <v>0</v>
-      </c>
-      <c r="G47" s="2">
+      <c r="G47" s="5">
         <v>0</v>
       </c>
       <c r="H47" s="2">
-        <v>2017</v>
+        <v>0</v>
       </c>
       <c r="I47" s="2">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="J47" s="2">
-        <v>1</v>
+        <v>2018</v>
       </c>
       <c r="K47" s="2">
+        <v>1</v>
+      </c>
+      <c r="L47" s="2">
         <v>35.9</v>
       </c>
-      <c r="L47" s="2">
+      <c r="M47" s="2">
         <v>41.6</v>
       </c>
-      <c r="M47" s="4">
+      <c r="N47" s="4">
         <v>625741</v>
       </c>
-      <c r="N47" s="4">
+      <c r="O47" s="4">
         <v>643085</v>
       </c>
-      <c r="O47" s="4">
+      <c r="P47" s="4">
         <v>647064</v>
       </c>
-      <c r="P47" s="8">
+      <c r="Q47" s="8">
         <v>712.8</v>
       </c>
-      <c r="Q47" s="6">
+      <c r="R47" s="6">
         <v>44</v>
       </c>
-      <c r="R47" s="10" t="s">
+      <c r="S47" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" ht="13" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B48" s="2">
         <v>0</v>
       </c>
-      <c r="C48" s="5">
-        <v>2017</v>
+      <c r="C48" s="2">
+        <v>1</v>
       </c>
       <c r="D48" s="5">
         <v>2017</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="5">
+        <v>2017</v>
+      </c>
+      <c r="F48" s="2">
         <v>201703</v>
       </c>
-      <c r="F48" s="5">
-        <v>0</v>
-      </c>
-      <c r="G48" s="2">
+      <c r="G48" s="5">
         <v>0</v>
       </c>
       <c r="H48" s="2">
-        <v>2017</v>
+        <v>0</v>
       </c>
       <c r="I48" s="2">
         <v>2017</v>
       </c>
       <c r="J48" s="2">
-        <v>1</v>
+        <v>2017</v>
       </c>
       <c r="K48" s="2">
+        <v>1</v>
+      </c>
+      <c r="L48" s="2">
         <v>27.4</v>
       </c>
-      <c r="L48" s="2">
+      <c r="M48" s="2">
         <v>29</v>
       </c>
-      <c r="M48" s="4">
+      <c r="N48" s="4">
         <v>8001024</v>
       </c>
-      <c r="N48" s="4">
+      <c r="O48" s="4">
         <v>8631384</v>
       </c>
-      <c r="O48" s="4">
+      <c r="P48" s="4">
         <v>8683619</v>
       </c>
-      <c r="P48" s="8">
+      <c r="Q48" s="8">
         <v>729.3</v>
       </c>
-      <c r="Q48" s="6">
+      <c r="R48" s="6">
         <v>57.022222222222226</v>
       </c>
-      <c r="R48" s="10" t="s">
+      <c r="S48" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" ht="13" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B49" s="2">
         <v>0</v>
       </c>
-      <c r="C49" s="5">
-        <v>2019</v>
+      <c r="C49" s="2">
+        <v>1</v>
       </c>
       <c r="D49" s="5">
         <v>2019</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="5">
+        <v>2019</v>
+      </c>
+      <c r="F49" s="2">
         <v>201901</v>
       </c>
-      <c r="F49" s="5">
+      <c r="G49" s="5">
         <v>2020</v>
       </c>
-      <c r="G49" s="2">
+      <c r="H49" s="2">
         <v>201911</v>
-      </c>
-      <c r="H49" s="2">
-        <v>2019</v>
       </c>
       <c r="I49" s="2">
         <v>2019</v>
       </c>
       <c r="J49" s="2">
-        <v>1</v>
+        <v>2019</v>
       </c>
       <c r="K49" s="2">
+        <v>1</v>
+      </c>
+      <c r="L49" s="2">
         <v>27</v>
       </c>
-      <c r="L49" s="2">
+      <c r="M49" s="2">
         <v>29.1</v>
       </c>
-      <c r="M49" s="4">
+      <c r="N49" s="4">
         <v>6724540</v>
       </c>
-      <c r="N49" s="4">
+      <c r="O49" s="4">
         <v>7705247</v>
       </c>
-      <c r="O49" s="4">
+      <c r="P49" s="4">
         <v>7785786</v>
       </c>
-      <c r="P49" s="8">
+      <c r="Q49" s="8">
         <v>684.5</v>
       </c>
-      <c r="Q49" s="6">
+      <c r="R49" s="6">
         <v>47.988888888888887</v>
       </c>
-      <c r="R49" s="10" t="s">
+      <c r="S49" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" ht="13" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B50" s="2">
         <v>0</v>
       </c>
-      <c r="C50" s="5">
-        <v>2018</v>
+      <c r="C50" s="2">
+        <v>1</v>
       </c>
       <c r="D50" s="5">
+        <v>2018</v>
+      </c>
+      <c r="E50" s="5">
         <v>2019</v>
       </c>
-      <c r="E50" s="2">
+      <c r="F50" s="2">
         <v>201807</v>
       </c>
-      <c r="F50" s="5">
-        <v>0</v>
-      </c>
-      <c r="G50" s="2">
+      <c r="G50" s="5">
         <v>0</v>
       </c>
       <c r="H50" s="2">
-        <v>2018</v>
+        <v>0</v>
       </c>
       <c r="I50" s="2">
+        <v>2018</v>
+      </c>
+      <c r="J50" s="2">
         <v>2019</v>
       </c>
-      <c r="J50" s="2">
-        <v>1</v>
-      </c>
       <c r="K50" s="2">
+        <v>1</v>
+      </c>
+      <c r="L50" s="2">
         <v>25.8</v>
       </c>
-      <c r="L50" s="2">
+      <c r="M50" s="2">
         <v>28.4</v>
       </c>
-      <c r="M50" s="4">
+      <c r="N50" s="4">
         <v>1852994</v>
       </c>
-      <c r="N50" s="4">
+      <c r="O50" s="4">
         <v>1793755</v>
       </c>
-      <c r="O50" s="4">
+      <c r="P50" s="4">
         <v>1775156</v>
       </c>
-      <c r="P50" s="8">
+      <c r="Q50" s="8">
         <v>966.4</v>
       </c>
-      <c r="Q50" s="6">
+      <c r="R50" s="6">
         <v>53.62222222222222</v>
       </c>
-      <c r="R50" s="10" t="s">
+      <c r="S50" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" ht="13" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B51" s="2">
         <v>1</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51" s="2">
         <v>0</v>
       </c>
       <c r="D51" s="5">
         <v>0</v>
       </c>
-      <c r="E51" s="2">
-        <v>0</v>
-      </c>
-      <c r="F51" s="5">
-        <v>0</v>
-      </c>
-      <c r="G51" s="2">
+      <c r="E51" s="5">
+        <v>0</v>
+      </c>
+      <c r="F51" s="2">
+        <v>0</v>
+      </c>
+      <c r="G51" s="5">
         <v>0</v>
       </c>
       <c r="H51" s="2">
-        <v>2017</v>
+        <v>0</v>
       </c>
       <c r="I51" s="2">
         <v>2017</v>
       </c>
       <c r="J51" s="2">
-        <v>0</v>
+        <v>2017</v>
       </c>
       <c r="K51" s="2">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2">
         <v>26.5</v>
       </c>
-      <c r="L51" s="2">
+      <c r="M51" s="2">
         <v>28.3</v>
       </c>
-      <c r="M51" s="4">
+      <c r="N51" s="4">
         <v>5686986</v>
       </c>
-      <c r="N51" s="4">
+      <c r="O51" s="4">
         <v>5893725</v>
       </c>
-      <c r="O51" s="4">
+      <c r="P51" s="4">
         <v>5892539</v>
       </c>
-      <c r="P51" s="8">
+      <c r="Q51" s="8">
         <v>745.4</v>
       </c>
-      <c r="Q51" s="6">
+      <c r="R51" s="6">
         <v>44.533333333333331</v>
       </c>
-      <c r="R51" s="10" t="s">
+      <c r="S51" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" ht="13" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B52" s="2">
         <v>0</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52" s="2">
+        <v>1</v>
+      </c>
+      <c r="D52" s="5">
         <v>2019</v>
       </c>
-      <c r="D52" s="5">
+      <c r="E52" s="5">
         <v>2020</v>
       </c>
-      <c r="E52" s="2">
+      <c r="F52" s="2">
         <v>201907</v>
       </c>
-      <c r="F52" s="5">
-        <v>0</v>
-      </c>
-      <c r="G52" s="2">
+      <c r="G52" s="5">
         <v>0</v>
       </c>
       <c r="H52" s="2">
+        <v>0</v>
+      </c>
+      <c r="I52" s="2">
         <v>2019</v>
       </c>
-      <c r="I52" s="2">
+      <c r="J52" s="2">
         <v>2020</v>
       </c>
-      <c r="J52" s="2">
-        <v>0</v>
-      </c>
       <c r="K52" s="2">
+        <v>0</v>
+      </c>
+      <c r="L52" s="2">
         <v>19.7</v>
       </c>
-      <c r="L52" s="2">
+      <c r="M52" s="2">
         <v>21.1</v>
       </c>
-      <c r="M52" s="4">
+      <c r="N52" s="4">
         <v>563626</v>
       </c>
-      <c r="N52" s="4">
+      <c r="O52" s="4">
         <v>576837</v>
       </c>
-      <c r="O52" s="4">
+      <c r="P52" s="4">
         <v>581381</v>
       </c>
-      <c r="P52" s="8">
+      <c r="Q52" s="8">
         <v>752.4</v>
       </c>
-      <c r="Q52" s="6">
+      <c r="R52" s="6">
         <v>42.722222222222229</v>
       </c>
-      <c r="R52" s="10" t="s">
+      <c r="S52" s="10" t="s">
         <v>67</v>
       </c>
     </row>

--- a/Data/auxiliary_data.xlsx
+++ b/Data/auxiliary_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9adb48ff0228f9c1/Thesis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1010" documentId="11_F25DC773A252ABDACC10483D791960605BDE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{981AE7CE-E278-4033-9CE2-F84FCD53291E}"/>
+  <xr:revisionPtr revIDLastSave="1011" documentId="11_F25DC773A252ABDACC10483D791960605BDE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{171A6143-3FEB-47D5-9B82-27A8BBFEBD85}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="73">
   <si>
     <t>Alabama</t>
   </si>
@@ -274,9 +274,6 @@
   </si>
   <si>
     <t>Democrat</t>
-  </si>
-  <si>
-    <t>Republican</t>
   </si>
   <si>
     <t>AgeAdjDeathRate</t>
@@ -697,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -730,7 +727,7 @@
         <v>50</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>64</v>
@@ -772,13 +769,13 @@
         <v>61</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>66</v>
       </c>
       <c r="S1" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="13" x14ac:dyDescent="0.3">
@@ -1722,7 +1719,7 @@
         <v>49.055555555555557</v>
       </c>
       <c r="S17" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="13" x14ac:dyDescent="0.3">

--- a/Data/auxiliary_data.xlsx
+++ b/Data/auxiliary_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9adb48ff0228f9c1/Thesis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1011" documentId="11_F25DC773A252ABDACC10483D791960605BDE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{171A6143-3FEB-47D5-9B82-27A8BBFEBD85}"/>
+  <xr:revisionPtr revIDLastSave="1012" documentId="11_F25DC773A252ABDACC10483D791960605BDE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91BEC914-BCEE-476A-9F9D-0300DFAAC413}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -267,9 +267,6 @@
     <t>AvgTemp</t>
   </si>
   <si>
-    <t>Republicans</t>
-  </si>
-  <si>
     <t>Swing State</t>
   </si>
   <si>
@@ -283,6 +280,9 @@
   </si>
   <si>
     <t>Law</t>
+  </si>
+  <si>
+    <t>Republican</t>
   </si>
 </sst>
 </file>
@@ -694,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -727,7 +727,7 @@
         <v>50</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>64</v>
@@ -769,13 +769,13 @@
         <v>61</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>66</v>
       </c>
       <c r="S1" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="13" x14ac:dyDescent="0.3">
@@ -834,7 +834,7 @@
         <v>64.811111111111089</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="13" x14ac:dyDescent="0.3">
@@ -893,7 +893,7 @@
         <v>29.422222222222224</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="13" x14ac:dyDescent="0.3">
@@ -952,7 +952,7 @@
         <v>61.811111111111117</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="13" x14ac:dyDescent="0.3">
@@ -1011,7 +1011,7 @@
         <v>61.755555555555553</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="13" x14ac:dyDescent="0.3">
@@ -1070,7 +1070,7 @@
         <v>59.877777777777773</v>
       </c>
       <c r="S6" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="13" x14ac:dyDescent="0.3">
@@ -1129,7 +1129,7 @@
         <v>46.888888888888886</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="13" x14ac:dyDescent="0.3">
@@ -1188,7 +1188,7 @@
         <v>51.055555555555557</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="13" x14ac:dyDescent="0.3">
@@ -1247,7 +1247,7 @@
         <v>57.311111111111103</v>
       </c>
       <c r="S9" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="13" x14ac:dyDescent="0.3">
@@ -1306,7 +1306,7 @@
         <v>60.37</v>
       </c>
       <c r="S10" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="13" x14ac:dyDescent="0.3">
@@ -1365,7 +1365,7 @@
         <v>72.811111111111103</v>
       </c>
       <c r="S11" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="13" x14ac:dyDescent="0.3">
@@ -1424,7 +1424,7 @@
         <v>65.422222222222217</v>
       </c>
       <c r="S12" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="13" x14ac:dyDescent="0.3">
@@ -1483,7 +1483,7 @@
         <v>81.08</v>
       </c>
       <c r="S13" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="13" x14ac:dyDescent="0.3">
@@ -1542,7 +1542,7 @@
         <v>44.488888888888887</v>
       </c>
       <c r="S14" s="10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="13" x14ac:dyDescent="0.3">
@@ -1601,7 +1601,7 @@
         <v>53.388888888888893</v>
       </c>
       <c r="S15" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="13" x14ac:dyDescent="0.3">
@@ -1660,7 +1660,7 @@
         <v>53.211111111111109</v>
       </c>
       <c r="S16" s="10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="13" x14ac:dyDescent="0.3">
@@ -1719,7 +1719,7 @@
         <v>49.055555555555557</v>
       </c>
       <c r="S17" s="10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="13" x14ac:dyDescent="0.3">
@@ -1778,7 +1778,7 @@
         <v>55.733333333333334</v>
       </c>
       <c r="S18" s="10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="13" x14ac:dyDescent="0.3">
@@ -1837,7 +1837,7 @@
         <v>57.25555555555556</v>
       </c>
       <c r="S19" s="10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="13" x14ac:dyDescent="0.3">
@@ -1896,7 +1896,7 @@
         <v>68.177777777777777</v>
       </c>
       <c r="S20" s="10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="13" x14ac:dyDescent="0.3">
@@ -1955,7 +1955,7 @@
         <v>42.766666666666659</v>
       </c>
       <c r="S21" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="13" x14ac:dyDescent="0.3">
@@ -2014,7 +2014,7 @@
         <v>56.466666666666669</v>
       </c>
       <c r="S22" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="13" x14ac:dyDescent="0.3">
@@ -2073,7 +2073,7 @@
         <v>49.966666666666669</v>
       </c>
       <c r="S23" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="13" x14ac:dyDescent="0.3">
@@ -2132,7 +2132,7 @@
         <v>46.022222222222219</v>
       </c>
       <c r="S24" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="13" x14ac:dyDescent="0.3">
@@ -2191,7 +2191,7 @@
         <v>42.344444444444441</v>
       </c>
       <c r="S25" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="13" x14ac:dyDescent="0.3">
@@ -2250,7 +2250,7 @@
         <v>65.400000000000006</v>
       </c>
       <c r="S26" s="10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="13" x14ac:dyDescent="0.3">
@@ -2309,7 +2309,7 @@
         <v>56.12222222222222</v>
       </c>
       <c r="S27" s="10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="13" x14ac:dyDescent="0.3">
@@ -2368,7 +2368,7 @@
         <v>43.022222222222219</v>
       </c>
       <c r="S28" s="10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="13" x14ac:dyDescent="0.3">
@@ -2427,7 +2427,7 @@
         <v>50.077777777777776</v>
       </c>
       <c r="S29" s="10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="13" x14ac:dyDescent="0.3">
@@ -2486,7 +2486,7 @@
         <v>51.711111111111109</v>
       </c>
       <c r="S30" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="13" x14ac:dyDescent="0.3">
@@ -2545,7 +2545,7 @@
         <v>45.12222222222222</v>
       </c>
       <c r="S31" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="13" x14ac:dyDescent="0.3">
@@ -2604,7 +2604,7 @@
         <v>54.722222222222229</v>
       </c>
       <c r="S32" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:19" ht="13" x14ac:dyDescent="0.3">
@@ -2663,7 +2663,7 @@
         <v>55.355555555555554</v>
       </c>
       <c r="S33" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="13" x14ac:dyDescent="0.3">
@@ -2722,7 +2722,7 @@
         <v>46.888888888888886</v>
       </c>
       <c r="S34" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:19" ht="13" x14ac:dyDescent="0.3">
@@ -2781,7 +2781,7 @@
         <v>60.622222222222227</v>
       </c>
       <c r="S35" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:19" ht="13" x14ac:dyDescent="0.3">
@@ -2840,7 +2840,7 @@
         <v>41.677777777777777</v>
       </c>
       <c r="S36" s="10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:19" ht="13" x14ac:dyDescent="0.3">
@@ -2899,7 +2899,7 @@
         <v>52.711111111111109</v>
       </c>
       <c r="S37" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:19" ht="13" x14ac:dyDescent="0.3">
@@ -2958,7 +2958,7 @@
         <v>61.022222222222211</v>
       </c>
       <c r="S38" s="10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:19" ht="13" x14ac:dyDescent="0.3">
@@ -3017,7 +3017,7 @@
         <v>48.56666666666667</v>
       </c>
       <c r="S39" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="13" x14ac:dyDescent="0.3">
@@ -3076,7 +3076,7 @@
         <v>50.466666666666669</v>
       </c>
       <c r="S40" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="13" x14ac:dyDescent="0.3">
@@ -3135,7 +3135,7 @@
         <v>51.833333333333343</v>
       </c>
       <c r="S41" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:19" ht="13" x14ac:dyDescent="0.3">
@@ -3194,7 +3194,7 @@
         <v>64.455555555555563</v>
       </c>
       <c r="S42" s="10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:19" ht="13" x14ac:dyDescent="0.3">
@@ -3253,7 +3253,7 @@
         <v>46.199999999999996</v>
       </c>
       <c r="S43" s="10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:19" ht="13" x14ac:dyDescent="0.3">
@@ -3312,7 +3312,7 @@
         <v>59.43333333333333</v>
       </c>
       <c r="S44" s="10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:19" ht="13" x14ac:dyDescent="0.3">
@@ -3371,7 +3371,7 @@
         <v>66.644444444444446</v>
       </c>
       <c r="S45" s="10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:19" ht="13" x14ac:dyDescent="0.3">
@@ -3430,7 +3430,7 @@
         <v>49.888888888888886</v>
       </c>
       <c r="S46" s="10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:19" ht="13" x14ac:dyDescent="0.3">
@@ -3489,7 +3489,7 @@
         <v>44</v>
       </c>
       <c r="S47" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:19" ht="13" x14ac:dyDescent="0.3">
@@ -3548,7 +3548,7 @@
         <v>57.022222222222226</v>
       </c>
       <c r="S48" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:19" ht="13" x14ac:dyDescent="0.3">
@@ -3607,7 +3607,7 @@
         <v>47.988888888888887</v>
       </c>
       <c r="S49" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:19" ht="13" x14ac:dyDescent="0.3">
@@ -3666,7 +3666,7 @@
         <v>53.62222222222222</v>
       </c>
       <c r="S50" s="10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:19" ht="13" x14ac:dyDescent="0.3">
@@ -3725,7 +3725,7 @@
         <v>44.533333333333331</v>
       </c>
       <c r="S51" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:19" ht="13" x14ac:dyDescent="0.3">
@@ -3784,7 +3784,7 @@
         <v>42.722222222222229</v>
       </c>
       <c r="S52" s="10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
